--- a/Excel_Analysis/MarkowitzAllocation.xlsx
+++ b/Excel_Analysis/MarkowitzAllocation.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14480" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14480" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Allocation" sheetId="1" r:id="rId1"/>
     <sheet name="Data" sheetId="2" r:id="rId2"/>
+    <sheet name="Plor from R" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -107,11 +108,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="5">
-    <numFmt numFmtId="166" formatCode="0.000"/>
-    <numFmt numFmtId="168" formatCode="#,##0.000"/>
-    <numFmt numFmtId="169" formatCode="#,##0.0000"/>
-    <numFmt numFmtId="170" formatCode="#,##0.00000"/>
-    <numFmt numFmtId="174" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="#,##0.000"/>
+    <numFmt numFmtId="166" formatCode="#,##0.0000"/>
+    <numFmt numFmtId="167" formatCode="#,##0.00000"/>
+    <numFmt numFmtId="168" formatCode="0.0000"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -313,7 +314,7 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -322,18 +323,18 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="174" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="174" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="174" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Collegamento ipertestuale" xfId="2" builtinId="8" hidden="1"/>
@@ -351,6 +352,85 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>114301</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>469901</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>23959</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Immagine 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="114301" y="114301"/>
+          <a:ext cx="11087100" cy="6412058"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF">
+            <a:shade val="85000"/>
+          </a:srgbClr>
+        </a:solidFill>
+        <a:ln w="88900" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="FFFFFF"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="55000" dist="18000" dir="5400000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="40000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:scene3d>
+          <a:camera prst="orthographicFront"/>
+          <a:lightRig rig="twoPt" dir="t">
+            <a:rot lat="0" lon="0" rev="7200000"/>
+          </a:lightRig>
+        </a:scene3d>
+        <a:sp3d>
+          <a:bevelT w="25400" h="19050"/>
+          <a:contourClr>
+            <a:srgbClr val="FFFFFF"/>
+          </a:contourClr>
+        </a:sp3d>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -618,7 +698,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM202"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
@@ -637,44 +717,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16"/>
-      <c r="Q1" s="16"/>
-      <c r="R1" s="16"/>
-      <c r="V1" s="16" t="s">
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
+      <c r="Q1" s="22"/>
+      <c r="R1" s="22"/>
+      <c r="V1" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="16"/>
-      <c r="X1" s="16"/>
-      <c r="Y1" s="16"/>
-      <c r="Z1" s="16"/>
-      <c r="AA1" s="16"/>
-      <c r="AB1" s="16"/>
-      <c r="AC1" s="16"/>
-      <c r="AD1" s="16"/>
-      <c r="AE1" s="16"/>
-      <c r="AF1" s="16"/>
-      <c r="AG1" s="16"/>
-      <c r="AH1" s="16"/>
-      <c r="AI1" s="16"/>
-      <c r="AJ1" s="16"/>
-      <c r="AK1" s="16"/>
-      <c r="AL1" s="16"/>
-      <c r="AM1" s="16"/>
+      <c r="W1" s="22"/>
+      <c r="X1" s="22"/>
+      <c r="Y1" s="22"/>
+      <c r="Z1" s="22"/>
+      <c r="AA1" s="22"/>
+      <c r="AB1" s="22"/>
+      <c r="AC1" s="22"/>
+      <c r="AD1" s="22"/>
+      <c r="AE1" s="22"/>
+      <c r="AF1" s="22"/>
+      <c r="AG1" s="22"/>
+      <c r="AH1" s="22"/>
+      <c r="AI1" s="22"/>
+      <c r="AJ1" s="22"/>
+      <c r="AK1" s="22"/>
+      <c r="AL1" s="22"/>
+      <c r="AM1" s="22"/>
     </row>
     <row r="2" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
@@ -790,10 +870,10 @@
       </c>
     </row>
     <row r="3" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A3" s="17">
+      <c r="A3" s="16">
         <v>1.0249999999999999</v>
       </c>
-      <c r="B3" s="20">
+      <c r="B3" s="19">
         <v>2.6263330000000001E-2</v>
       </c>
       <c r="C3" s="1">
@@ -917,15 +997,15 @@
         <v>1.0249999801512262</v>
       </c>
       <c r="AM3" s="4">
-        <f>A3</f>
+        <f t="shared" ref="AM3:AM34" si="1">A3</f>
         <v>1.0249999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A4" s="18">
+      <c r="A4" s="17">
         <v>1.05</v>
       </c>
-      <c r="B4" s="21">
+      <c r="B4" s="20">
         <v>2.632549E-2</v>
       </c>
       <c r="C4" s="1">
@@ -1045,19 +1125,19 @@
         <v>6.3116798820615997E-3</v>
       </c>
       <c r="AL4" s="4">
-        <f t="shared" ref="AL4:AL67" si="1">SUM(V4:AK4)</f>
+        <f t="shared" ref="AL4:AL67" si="2">SUM(V4:AK4)</f>
         <v>1.0499999955324124</v>
       </c>
       <c r="AM4" s="4">
-        <f>A4</f>
+        <f t="shared" si="1"/>
         <v>1.05</v>
       </c>
     </row>
     <row r="5" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A5" s="18">
+      <c r="A5" s="17">
         <v>1.075</v>
       </c>
-      <c r="B5" s="21">
+      <c r="B5" s="20">
         <v>2.7384639999999998E-2</v>
       </c>
       <c r="C5" s="1">
@@ -1177,19 +1257,19 @@
         <v>4.6594081689127998E-3</v>
       </c>
       <c r="AL5" s="4">
+        <f t="shared" si="2"/>
+        <v>1.0750000470194758</v>
+      </c>
+      <c r="AM5" s="4">
         <f t="shared" si="1"/>
-        <v>1.0750000470194758</v>
-      </c>
-      <c r="AM5" s="4">
-        <f>A5</f>
         <v>1.075</v>
       </c>
     </row>
     <row r="6" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A6" s="18">
+      <c r="A6" s="17">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B6" s="21">
+      <c r="B6" s="20">
         <v>2.9170140000000001E-2</v>
       </c>
       <c r="C6" s="1">
@@ -1309,19 +1389,19 @@
         <v>2.9835196081791997E-3</v>
       </c>
       <c r="AL6" s="4">
+        <f t="shared" si="2"/>
+        <v>1.1000000103722043</v>
+      </c>
+      <c r="AM6" s="4">
         <f t="shared" si="1"/>
-        <v>1.1000000103722043</v>
-      </c>
-      <c r="AM6" s="4">
-        <f>A6</f>
         <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A7" s="18">
+      <c r="A7" s="17">
         <v>1.125</v>
       </c>
-      <c r="B7" s="21">
+      <c r="B7" s="20">
         <v>3.1551009999999997E-2</v>
       </c>
       <c r="C7" s="1">
@@ -1441,19 +1521,19 @@
         <v>1.2631904026559999E-3</v>
       </c>
       <c r="AL7" s="4">
+        <f t="shared" si="2"/>
+        <v>1.1250000370744981</v>
+      </c>
+      <c r="AM7" s="4">
         <f t="shared" si="1"/>
-        <v>1.1250000370744981</v>
-      </c>
-      <c r="AM7" s="4">
-        <f>A7</f>
         <v>1.125</v>
       </c>
     </row>
     <row r="8" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A8" s="18">
+      <c r="A8" s="17">
         <v>1.1499999999999999</v>
       </c>
-      <c r="B8" s="21">
+      <c r="B8" s="20">
         <v>3.4402479999999999E-2</v>
       </c>
       <c r="C8" s="1">
@@ -1573,19 +1653,19 @@
         <v>0</v>
       </c>
       <c r="AL8" s="4">
+        <f t="shared" si="2"/>
+        <v>1.1499999435045831</v>
+      </c>
+      <c r="AM8" s="4">
         <f t="shared" si="1"/>
-        <v>1.1499999435045831</v>
-      </c>
-      <c r="AM8" s="4">
-        <f>A8</f>
         <v>1.1499999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A9" s="18">
+      <c r="A9" s="17">
         <v>1.175</v>
       </c>
-      <c r="B9" s="21">
+      <c r="B9" s="20">
         <v>3.7622879999999997E-2</v>
       </c>
       <c r="C9" s="1">
@@ -1705,19 +1785,19 @@
         <v>0</v>
       </c>
       <c r="AL9" s="4">
+        <f t="shared" si="2"/>
+        <v>1.1749999917953595</v>
+      </c>
+      <c r="AM9" s="4">
         <f t="shared" si="1"/>
-        <v>1.1749999917953595</v>
-      </c>
-      <c r="AM9" s="4">
-        <f>A9</f>
         <v>1.175</v>
       </c>
     </row>
     <row r="10" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A10" s="18">
+      <c r="A10" s="17">
         <v>1.2</v>
       </c>
-      <c r="B10" s="21">
+      <c r="B10" s="20">
         <v>4.1126740000000002E-2</v>
       </c>
       <c r="C10" s="1">
@@ -1837,19 +1917,19 @@
         <v>-1.1365480606296E-20</v>
       </c>
       <c r="AL10" s="4">
+        <f t="shared" si="2"/>
+        <v>1.199999995987999</v>
+      </c>
+      <c r="AM10" s="4">
         <f t="shared" si="1"/>
-        <v>1.199999995987999</v>
-      </c>
-      <c r="AM10" s="4">
-        <f>A10</f>
         <v>1.2</v>
       </c>
     </row>
     <row r="11" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A11" s="18">
+      <c r="A11" s="17">
         <v>1.2250000000000001</v>
       </c>
-      <c r="B11" s="21">
+      <c r="B11" s="20">
         <v>4.48478E-2</v>
       </c>
       <c r="C11" s="1">
@@ -1969,19 +2049,19 @@
         <v>1.0483815942096E-19</v>
       </c>
       <c r="AL11" s="4">
+        <f t="shared" si="2"/>
+        <v>1.2250000009839361</v>
+      </c>
+      <c r="AM11" s="4">
         <f t="shared" si="1"/>
-        <v>1.2250000009839361</v>
-      </c>
-      <c r="AM11" s="4">
-        <f>A11</f>
         <v>1.2250000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A12" s="18">
+      <c r="A12" s="17">
         <v>1.25</v>
       </c>
-      <c r="B12" s="21">
+      <c r="B12" s="20">
         <v>4.8737570000000001E-2</v>
       </c>
       <c r="C12" s="1">
@@ -2101,19 +2181,19 @@
         <v>2.0566154373463998E-19</v>
       </c>
       <c r="AL12" s="4">
+        <f t="shared" si="2"/>
+        <v>1.2499999941201068</v>
+      </c>
+      <c r="AM12" s="4">
         <f t="shared" si="1"/>
-        <v>1.2499999941201068</v>
-      </c>
-      <c r="AM12" s="4">
-        <f>A12</f>
         <v>1.25</v>
       </c>
     </row>
     <row r="13" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A13" s="18">
+      <c r="A13" s="17">
         <v>1.2749999999999999</v>
       </c>
-      <c r="B13" s="21">
+      <c r="B13" s="20">
         <v>5.2759050000000002E-2</v>
       </c>
       <c r="C13" s="1">
@@ -2233,19 +2313,19 @@
         <v>5.7434063460920001E-19</v>
       </c>
       <c r="AL13" s="4">
+        <f t="shared" si="2"/>
+        <v>1.2749999558250458</v>
+      </c>
+      <c r="AM13" s="4">
         <f t="shared" si="1"/>
-        <v>1.2749999558250458</v>
-      </c>
-      <c r="AM13" s="4">
-        <f>A13</f>
         <v>1.2749999999999999</v>
       </c>
     </row>
     <row r="14" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A14" s="18">
+      <c r="A14" s="17">
         <v>1.3</v>
       </c>
-      <c r="B14" s="21">
+      <c r="B14" s="20">
         <v>5.6884329999999997E-2</v>
       </c>
       <c r="C14" s="1">
@@ -2365,19 +2445,19 @@
         <v>3.6535224654759999E-19</v>
       </c>
       <c r="AL14" s="4">
+        <f t="shared" si="2"/>
+        <v>1.2999999625756822</v>
+      </c>
+      <c r="AM14" s="4">
         <f t="shared" si="1"/>
-        <v>1.2999999625756822</v>
-      </c>
-      <c r="AM14" s="4">
-        <f>A14</f>
         <v>1.3</v>
       </c>
     </row>
     <row r="15" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A15" s="18">
+      <c r="A15" s="17">
         <v>1.325</v>
       </c>
-      <c r="B15" s="21">
+      <c r="B15" s="20">
         <v>6.1095869999999997E-2</v>
       </c>
       <c r="C15" s="1">
@@ -2497,19 +2577,19 @@
         <v>-1.0241833966695999E-18</v>
       </c>
       <c r="AL15" s="4">
+        <f t="shared" si="2"/>
+        <v>1.3249999648437778</v>
+      </c>
+      <c r="AM15" s="4">
         <f t="shared" si="1"/>
-        <v>1.3249999648437778</v>
-      </c>
-      <c r="AM15" s="4">
-        <f>A15</f>
         <v>1.325</v>
       </c>
     </row>
     <row r="16" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A16" s="18">
+      <c r="A16" s="17">
         <v>1.35</v>
       </c>
-      <c r="B16" s="21">
+      <c r="B16" s="20">
         <v>6.5379679999999996E-2</v>
       </c>
       <c r="C16" s="1">
@@ -2629,19 +2709,19 @@
         <v>-9.8778584715304E-19</v>
       </c>
       <c r="AL16" s="4">
+        <f t="shared" si="2"/>
+        <v>1.3499999968118628</v>
+      </c>
+      <c r="AM16" s="4">
         <f t="shared" si="1"/>
-        <v>1.3499999968118628</v>
-      </c>
-      <c r="AM16" s="4">
-        <f>A16</f>
         <v>1.35</v>
       </c>
     </row>
     <row r="17" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A17" s="18">
+      <c r="A17" s="17">
         <v>1.375</v>
       </c>
-      <c r="B17" s="21">
+      <c r="B17" s="20">
         <v>6.9724759999999997E-2</v>
       </c>
       <c r="C17" s="1">
@@ -2761,19 +2841,19 @@
         <v>1.3593227476288001E-18</v>
       </c>
       <c r="AL17" s="4">
+        <f t="shared" si="2"/>
+        <v>1.3749999958014185</v>
+      </c>
+      <c r="AM17" s="4">
         <f t="shared" si="1"/>
-        <v>1.3749999958014185</v>
-      </c>
-      <c r="AM17" s="4">
-        <f>A17</f>
         <v>1.375</v>
       </c>
     </row>
     <row r="18" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A18" s="18">
+      <c r="A18" s="17">
         <v>1.4</v>
       </c>
-      <c r="B18" s="21">
+      <c r="B18" s="20">
         <v>7.4121229999999996E-2</v>
       </c>
       <c r="C18" s="1">
@@ -2893,19 +2973,19 @@
         <v>-1.8068584006407998E-18</v>
       </c>
       <c r="AL18" s="4">
+        <f t="shared" si="2"/>
+        <v>1.4000000469453779</v>
+      </c>
+      <c r="AM18" s="4">
         <f t="shared" si="1"/>
-        <v>1.4000000469453779</v>
-      </c>
-      <c r="AM18" s="4">
-        <f>A18</f>
         <v>1.4</v>
       </c>
     </row>
     <row r="19" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A19" s="18">
+      <c r="A19" s="17">
         <v>1.425</v>
       </c>
-      <c r="B19" s="21">
+      <c r="B19" s="20">
         <v>7.8560459999999999E-2</v>
       </c>
       <c r="C19" s="1">
@@ -3025,19 +3105,19 @@
         <v>1.4772082587824001E-19</v>
       </c>
       <c r="AL19" s="4">
+        <f t="shared" si="2"/>
+        <v>1.4250000304256787</v>
+      </c>
+      <c r="AM19" s="4">
         <f t="shared" si="1"/>
-        <v>1.4250000304256787</v>
-      </c>
-      <c r="AM19" s="4">
-        <f>A19</f>
         <v>1.425</v>
       </c>
     </row>
     <row r="20" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A20" s="18">
+      <c r="A20" s="17">
         <v>1.45</v>
       </c>
-      <c r="B20" s="21">
+      <c r="B20" s="20">
         <v>8.3035590000000006E-2</v>
       </c>
       <c r="C20" s="1">
@@ -3157,19 +3237,19 @@
         <v>-6.1872729690295992E-20</v>
       </c>
       <c r="AL20" s="4">
+        <f t="shared" si="2"/>
+        <v>1.449999912479885</v>
+      </c>
+      <c r="AM20" s="4">
         <f t="shared" si="1"/>
-        <v>1.449999912479885</v>
-      </c>
-      <c r="AM20" s="4">
-        <f>A20</f>
         <v>1.45</v>
       </c>
     </row>
     <row r="21" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A21" s="18">
+      <c r="A21" s="17">
         <v>1.4750000000000001</v>
       </c>
-      <c r="B21" s="21">
+      <c r="B21" s="20">
         <v>8.754112E-2</v>
       </c>
       <c r="C21" s="1">
@@ -3289,19 +3369,19 @@
         <v>-1.0256871947679999E-19</v>
       </c>
       <c r="AL21" s="4">
+        <f t="shared" si="2"/>
+        <v>1.4750000805591943</v>
+      </c>
+      <c r="AM21" s="4">
         <f t="shared" si="1"/>
-        <v>1.4750000805591943</v>
-      </c>
-      <c r="AM21" s="4">
-        <f>A21</f>
         <v>1.4750000000000001</v>
       </c>
     </row>
     <row r="22" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A22" s="18">
+      <c r="A22" s="17">
         <v>1.5</v>
       </c>
-      <c r="B22" s="21">
+      <c r="B22" s="20">
         <v>9.2072589999999996E-2</v>
       </c>
       <c r="C22" s="1">
@@ -3421,19 +3501,19 @@
         <v>1.4314496896895998E-18</v>
       </c>
       <c r="AL22" s="4">
+        <f t="shared" si="2"/>
+        <v>1.4999999615540682</v>
+      </c>
+      <c r="AM22" s="4">
         <f t="shared" si="1"/>
-        <v>1.4999999615540682</v>
-      </c>
-      <c r="AM22" s="4">
-        <f>A22</f>
         <v>1.5</v>
       </c>
     </row>
     <row r="23" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A23" s="18">
+      <c r="A23" s="17">
         <v>1.5249999999999999</v>
       </c>
-      <c r="B23" s="21">
+      <c r="B23" s="20">
         <v>9.6626829999999997E-2</v>
       </c>
       <c r="C23" s="1">
@@ -3553,19 +3633,19 @@
         <v>1.7160669612087998E-18</v>
       </c>
       <c r="AL23" s="4">
+        <f t="shared" si="2"/>
+        <v>1.52500001941574</v>
+      </c>
+      <c r="AM23" s="4">
         <f t="shared" si="1"/>
-        <v>1.52500001941574</v>
-      </c>
-      <c r="AM23" s="4">
-        <f>A23</f>
         <v>1.5249999999999999</v>
       </c>
     </row>
     <row r="24" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A24" s="18">
+      <c r="A24" s="17">
         <v>1.55</v>
       </c>
-      <c r="B24" s="21">
+      <c r="B24" s="20">
         <v>0.10120097</v>
       </c>
       <c r="C24" s="1">
@@ -3685,19 +3765,19 @@
         <v>9.2364495292920002E-19</v>
       </c>
       <c r="AL24" s="4">
+        <f t="shared" si="2"/>
+        <v>1.549999960342062</v>
+      </c>
+      <c r="AM24" s="4">
         <f t="shared" si="1"/>
-        <v>1.549999960342062</v>
-      </c>
-      <c r="AM24" s="4">
-        <f>A24</f>
         <v>1.55</v>
       </c>
     </row>
     <row r="25" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A25" s="18">
+      <c r="A25" s="17">
         <v>1.575</v>
       </c>
-      <c r="B25" s="21">
+      <c r="B25" s="20">
         <v>0.10579242</v>
       </c>
       <c r="C25" s="1">
@@ -3817,19 +3897,19 @@
         <v>9.1080829112080008E-19</v>
       </c>
       <c r="AL25" s="4">
+        <f t="shared" si="2"/>
+        <v>1.5750000182037338</v>
+      </c>
+      <c r="AM25" s="4">
         <f t="shared" si="1"/>
-        <v>1.5750000182037338</v>
-      </c>
-      <c r="AM25" s="4">
-        <f>A25</f>
         <v>1.575</v>
       </c>
     </row>
     <row r="26" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A26" s="18">
+      <c r="A26" s="17">
         <v>1.6</v>
       </c>
-      <c r="B26" s="21">
+      <c r="B26" s="20">
         <v>0.11039902</v>
       </c>
       <c r="C26" s="1">
@@ -3949,19 +4029,19 @@
         <v>8.9797162931239995E-19</v>
       </c>
       <c r="AL26" s="4">
+        <f t="shared" si="2"/>
+        <v>1.600000009431453</v>
+      </c>
+      <c r="AM26" s="4">
         <f t="shared" si="1"/>
-        <v>1.600000009431453</v>
-      </c>
-      <c r="AM26" s="4">
-        <f>A26</f>
         <v>1.6</v>
       </c>
     </row>
     <row r="27" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A27" s="18">
+      <c r="A27" s="17">
         <v>1.625</v>
       </c>
-      <c r="B27" s="21">
+      <c r="B27" s="20">
         <v>0.11501894999999999</v>
       </c>
       <c r="C27" s="1">
@@ -4081,19 +4161,19 @@
         <v>-9.7428498313391986E-18</v>
       </c>
       <c r="AL27" s="4">
+        <f t="shared" si="2"/>
+        <v>1.6250002835275401</v>
+      </c>
+      <c r="AM27" s="4">
         <f t="shared" si="1"/>
-        <v>1.6250002835275401</v>
-      </c>
-      <c r="AM27" s="4">
-        <f>A27</f>
         <v>1.625</v>
       </c>
     </row>
     <row r="28" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A28" s="18">
+      <c r="A28" s="17">
         <v>1.65</v>
       </c>
-      <c r="B28" s="21">
+      <c r="B28" s="20">
         <v>0.11965068</v>
       </c>
       <c r="C28" s="1">
@@ -4213,19 +4293,19 @@
         <v>-1.0451228706511999E-17</v>
       </c>
       <c r="AL28" s="4">
+        <f t="shared" si="2"/>
+        <v>1.6500000748534003</v>
+      </c>
+      <c r="AM28" s="4">
         <f t="shared" si="1"/>
-        <v>1.6500000748534003</v>
-      </c>
-      <c r="AM28" s="4">
-        <f>A28</f>
         <v>1.65</v>
       </c>
     </row>
     <row r="29" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A29" s="18">
+      <c r="A29" s="17">
         <v>1.675</v>
       </c>
-      <c r="B29" s="21">
+      <c r="B29" s="20">
         <v>0.12429287</v>
       </c>
       <c r="C29" s="1">
@@ -4345,19 +4425,19 @@
         <v>-1.1159605604303999E-17</v>
       </c>
       <c r="AL29" s="4">
+        <f t="shared" si="2"/>
+        <v>1.6749997492439099</v>
+      </c>
+      <c r="AM29" s="4">
         <f t="shared" si="1"/>
-        <v>1.6749997492439099</v>
-      </c>
-      <c r="AM29" s="4">
-        <f>A29</f>
         <v>1.675</v>
       </c>
     </row>
     <row r="30" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A30" s="18">
+      <c r="A30" s="17">
         <v>1.7</v>
       </c>
-      <c r="B30" s="21">
+      <c r="B30" s="20">
         <v>0.12894439999999999</v>
       </c>
       <c r="C30" s="1">
@@ -4477,19 +4557,19 @@
         <v>-1.1867982502095999E-17</v>
       </c>
       <c r="AL30" s="4">
+        <f t="shared" si="2"/>
+        <v>1.7000002069093001</v>
+      </c>
+      <c r="AM30" s="4">
         <f t="shared" si="1"/>
-        <v>1.7000002069093001</v>
-      </c>
-      <c r="AM30" s="4">
-        <f>A30</f>
         <v>1.7</v>
       </c>
     </row>
     <row r="31" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A31" s="18">
+      <c r="A31" s="17">
         <v>1.7250000000000001</v>
       </c>
-      <c r="B31" s="21">
+      <c r="B31" s="20">
         <v>0.13360430000000001</v>
       </c>
       <c r="C31" s="1">
@@ -4609,19 +4689,19 @@
         <v>-1.2576369286792E-17</v>
       </c>
       <c r="AL31" s="4">
+        <f t="shared" si="2"/>
+        <v>1.7249998812998102</v>
+      </c>
+      <c r="AM31" s="4">
         <f t="shared" si="1"/>
-        <v>1.7249998812998102</v>
-      </c>
-      <c r="AM31" s="4">
-        <f>A31</f>
         <v>1.7250000000000001</v>
       </c>
     </row>
     <row r="32" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A32" s="18">
+      <c r="A32" s="17">
         <v>1.75</v>
       </c>
-      <c r="B32" s="21">
+      <c r="B32" s="20">
         <v>0.13827170999999999</v>
       </c>
       <c r="C32" s="1">
@@ -4741,19 +4821,19 @@
         <v>-1.3284746184584E-17</v>
       </c>
       <c r="AL32" s="4">
+        <f t="shared" si="2"/>
+        <v>1.7499996726256704</v>
+      </c>
+      <c r="AM32" s="4">
         <f t="shared" si="1"/>
-        <v>1.7499996726256704</v>
-      </c>
-      <c r="AM32" s="4">
-        <f>A32</f>
         <v>1.75</v>
       </c>
     </row>
     <row r="33" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A33" s="18">
+      <c r="A33" s="17">
         <v>1.7749999999999999</v>
       </c>
-      <c r="B33" s="21">
+      <c r="B33" s="20">
         <v>0.14294591000000001</v>
       </c>
       <c r="C33" s="1">
@@ -4873,19 +4953,19 @@
         <v>-1.3993123082376001E-17</v>
       </c>
       <c r="AL33" s="4">
+        <f t="shared" si="2"/>
+        <v>1.7750002327468601</v>
+      </c>
+      <c r="AM33" s="4">
         <f t="shared" si="1"/>
-        <v>1.7750002327468601</v>
-      </c>
-      <c r="AM33" s="4">
-        <f>A33</f>
         <v>1.7749999999999999</v>
       </c>
     </row>
     <row r="34" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A34" s="18">
+      <c r="A34" s="17">
         <v>1.8</v>
       </c>
-      <c r="B34" s="21">
+      <c r="B34" s="20">
         <v>0.14762623999999999</v>
       </c>
       <c r="C34" s="1">
@@ -5005,19 +5085,19 @@
         <v>-1.4701499980167998E-17</v>
       </c>
       <c r="AL34" s="4">
+        <f t="shared" si="2"/>
+        <v>1.7999999071373702</v>
+      </c>
+      <c r="AM34" s="4">
         <f t="shared" si="1"/>
-        <v>1.7999999071373702</v>
-      </c>
-      <c r="AM34" s="4">
-        <f>A34</f>
         <v>1.8</v>
       </c>
     </row>
     <row r="35" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A35" s="18">
+      <c r="A35" s="17">
         <v>1.825</v>
       </c>
-      <c r="B35" s="21">
+      <c r="B35" s="20">
         <v>0.15231214000000001</v>
       </c>
       <c r="C35" s="1">
@@ -5137,19 +5217,19 @@
         <v>-1.5409876877960001E-17</v>
       </c>
       <c r="AL35" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.8250003648027604</v>
       </c>
       <c r="AM35" s="4">
-        <f>A35</f>
+        <f t="shared" ref="AM35:AM66" si="3">A35</f>
         <v>1.825</v>
       </c>
     </row>
     <row r="36" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A36" s="18">
+      <c r="A36" s="17">
         <v>1.85</v>
       </c>
-      <c r="B36" s="21">
+      <c r="B36" s="20">
         <v>0.15700312</v>
       </c>
       <c r="C36" s="1">
@@ -5269,19 +5349,19 @@
         <v>-1.6118263662656E-17</v>
       </c>
       <c r="AL36" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.8500000391932701</v>
       </c>
       <c r="AM36" s="4">
-        <f>A36</f>
+        <f t="shared" si="3"/>
         <v>1.85</v>
       </c>
     </row>
     <row r="37" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A37" s="18">
+      <c r="A37" s="17">
         <v>1.875</v>
       </c>
-      <c r="B37" s="21">
+      <c r="B37" s="20">
         <v>0.16169873000000001</v>
       </c>
       <c r="C37" s="1">
@@ -5401,19 +5481,19 @@
         <v>-1.6826640560447997E-17</v>
       </c>
       <c r="AL37" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.8749998305191304</v>
       </c>
       <c r="AM37" s="4">
-        <f>A37</f>
+        <f t="shared" si="3"/>
         <v>1.875</v>
       </c>
     </row>
     <row r="38" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A38" s="18">
+      <c r="A38" s="17">
         <v>1.9</v>
       </c>
-      <c r="B38" s="21">
+      <c r="B38" s="20">
         <v>0.16639857999999999</v>
       </c>
       <c r="C38" s="1">
@@ -5533,19 +5613,19 @@
         <v>-1.753501745824E-17</v>
       </c>
       <c r="AL38" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.9000002881845202</v>
       </c>
       <c r="AM38" s="4">
-        <f>A38</f>
+        <f t="shared" si="3"/>
         <v>1.9</v>
       </c>
     </row>
     <row r="39" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A39" s="18">
+      <c r="A39" s="17">
         <v>1.925</v>
       </c>
-      <c r="B39" s="21">
+      <c r="B39" s="20">
         <v>0.17110232</v>
       </c>
       <c r="C39" s="1">
@@ -5665,19 +5745,19 @@
         <v>-1.8243394356032E-17</v>
       </c>
       <c r="AL39" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.9249999625750303</v>
       </c>
       <c r="AM39" s="4">
-        <f>A39</f>
+        <f t="shared" si="3"/>
         <v>1.925</v>
       </c>
     </row>
     <row r="40" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A40" s="18">
+      <c r="A40" s="17">
         <v>1.95</v>
       </c>
-      <c r="B40" s="21">
+      <c r="B40" s="20">
         <v>0.17580963999999999</v>
       </c>
       <c r="C40" s="1">
@@ -5797,19 +5877,19 @@
         <v>-2.0806416027568E-17</v>
       </c>
       <c r="AL40" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.9499997539008902</v>
       </c>
       <c r="AM40" s="4">
-        <f>A40</f>
+        <f t="shared" si="3"/>
         <v>1.95</v>
       </c>
     </row>
     <row r="41" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A41" s="18">
+      <c r="A41" s="17">
         <v>1.9750000000000001</v>
       </c>
-      <c r="B41" s="21">
+      <c r="B41" s="20">
         <v>0.18052024999999999</v>
       </c>
       <c r="C41" s="1">
@@ -5929,19 +6009,19 @@
         <v>-2.1724049248519999E-17</v>
       </c>
       <c r="AL41" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.9750000946309301</v>
       </c>
       <c r="AM41" s="4">
-        <f>A41</f>
+        <f t="shared" si="3"/>
         <v>1.9750000000000001</v>
       </c>
     </row>
     <row r="42" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A42" s="18">
+      <c r="A42" s="17">
         <v>2</v>
       </c>
-      <c r="B42" s="21">
+      <c r="B42" s="20">
         <v>0.18523391</v>
       </c>
       <c r="C42" s="1">
@@ -6061,19 +6141,19 @@
         <v>-2.2641672582567998E-17</v>
       </c>
       <c r="AL42" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.9999998859567902</v>
       </c>
       <c r="AM42" s="4">
-        <f>A42</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A43" s="18">
+      <c r="A43" s="17">
         <v>2.0249999999999999</v>
       </c>
-      <c r="B43" s="21">
+      <c r="B43" s="20">
         <v>0.18995039</v>
       </c>
       <c r="C43" s="1">
@@ -6193,19 +6273,19 @@
         <v>-2.3559295916616E-17</v>
       </c>
       <c r="AL43" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.0250002266868301</v>
       </c>
       <c r="AM43" s="4">
-        <f>A43</f>
+        <f t="shared" si="3"/>
         <v>2.0249999999999999</v>
       </c>
     </row>
     <row r="44" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A44" s="18">
+      <c r="A44" s="17">
         <v>2.0499999999999998</v>
       </c>
-      <c r="B44" s="21">
+      <c r="B44" s="20">
         <v>0.19466949</v>
       </c>
       <c r="C44" s="1">
@@ -6325,19 +6405,19 @@
         <v>-2.4476919250663999E-17</v>
       </c>
       <c r="AL44" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.0500000180126898</v>
       </c>
       <c r="AM44" s="4">
-        <f>A44</f>
+        <f t="shared" si="3"/>
         <v>2.0499999999999998</v>
       </c>
     </row>
     <row r="45" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A45" s="18">
+      <c r="A45" s="17">
         <v>2.0750000000000002</v>
       </c>
-      <c r="B45" s="21">
+      <c r="B45" s="20">
         <v>0.19939101000000001</v>
       </c>
       <c r="C45" s="1">
@@ -6457,19 +6537,19 @@
         <v>-2.5394552471616E-17</v>
       </c>
       <c r="AL45" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.07499980933855</v>
       </c>
       <c r="AM45" s="4">
-        <f>A45</f>
+        <f t="shared" si="3"/>
         <v>2.0750000000000002</v>
       </c>
     </row>
     <row r="46" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A46" s="18">
+      <c r="A46" s="17">
         <v>2.1</v>
       </c>
-      <c r="B46" s="21">
+      <c r="B46" s="20">
         <v>0.20411480000000001</v>
       </c>
       <c r="C46" s="1">
@@ -6589,19 +6669,19 @@
         <v>-2.6312175805663999E-17</v>
       </c>
       <c r="AL46" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.1000001500685901</v>
       </c>
       <c r="AM46" s="4">
-        <f>A46</f>
+        <f t="shared" si="3"/>
         <v>2.1</v>
       </c>
     </row>
     <row r="47" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A47" s="18">
+      <c r="A47" s="17">
         <v>2.125</v>
       </c>
-      <c r="B47" s="21">
+      <c r="B47" s="20">
         <v>0.20884069</v>
       </c>
       <c r="C47" s="1">
@@ -6721,19 +6801,19 @@
         <v>-4.0950636885927999E-17</v>
       </c>
       <c r="AL47" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.1249999413944503</v>
       </c>
       <c r="AM47" s="4">
-        <f>A47</f>
+        <f t="shared" si="3"/>
         <v>2.125</v>
       </c>
     </row>
     <row r="48" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A48" s="18">
+      <c r="A48" s="17">
         <v>2.15</v>
       </c>
-      <c r="B48" s="21">
+      <c r="B48" s="20">
         <v>0.21356855</v>
       </c>
       <c r="C48" s="1">
@@ -6853,19 +6933,19 @@
         <v>-1.4426594614448002E-17</v>
       </c>
       <c r="AL48" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.1500002821244903</v>
       </c>
       <c r="AM48" s="4">
-        <f>A48</f>
+        <f t="shared" si="3"/>
         <v>2.15</v>
       </c>
     </row>
     <row r="49" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A49" s="18">
+      <c r="A49" s="17">
         <v>2.1749999999999998</v>
       </c>
-      <c r="B49" s="21">
+      <c r="B49" s="20">
         <v>0.21829824</v>
       </c>
       <c r="C49" s="1">
@@ -6985,19 +7065,19 @@
         <v>-2.9065055694712002E-17</v>
       </c>
       <c r="AL49" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.1750000734503501</v>
       </c>
       <c r="AM49" s="4">
-        <f>A49</f>
+        <f t="shared" si="3"/>
         <v>2.1749999999999998</v>
       </c>
     </row>
     <row r="50" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A50" s="18">
+      <c r="A50" s="17">
         <v>2.2000000000000002</v>
       </c>
-      <c r="B50" s="21">
+      <c r="B50" s="20">
         <v>0.22302967000000001</v>
       </c>
       <c r="C50" s="1">
@@ -7117,19 +7197,19 @@
         <v>-1.6261841282544E-17</v>
       </c>
       <c r="AL50" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.1999998647762102</v>
       </c>
       <c r="AM50" s="4">
-        <f>A50</f>
+        <f t="shared" si="3"/>
         <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="51" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A51" s="18">
+      <c r="A51" s="17">
         <v>2.2250000000000001</v>
       </c>
-      <c r="B51" s="21">
+      <c r="B51" s="20">
         <v>0.22776270000000001</v>
       </c>
       <c r="C51" s="1">
@@ -7249,19 +7329,19 @@
         <v>-3.0900302362808E-17</v>
       </c>
       <c r="AL51" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.2250002055062499</v>
       </c>
       <c r="AM51" s="4">
-        <f>A51</f>
+        <f t="shared" si="3"/>
         <v>2.2250000000000001</v>
       </c>
     </row>
     <row r="52" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A52" s="18">
+      <c r="A52" s="17">
         <v>2.25</v>
       </c>
-      <c r="B52" s="21">
+      <c r="B52" s="20">
         <v>0.23249724999999999</v>
       </c>
       <c r="C52" s="1">
@@ -7381,19 +7461,19 @@
         <v>-3.1817925696855999E-17</v>
       </c>
       <c r="AL52" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.24999999683211</v>
       </c>
       <c r="AM52" s="4">
-        <f>A52</f>
+        <f t="shared" si="3"/>
         <v>2.25</v>
       </c>
     </row>
     <row r="53" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A53" s="18">
+      <c r="A53" s="17">
         <v>2.2749999999999999</v>
       </c>
-      <c r="B53" s="21">
+      <c r="B53" s="20">
         <v>0.23723322999999999</v>
       </c>
       <c r="C53" s="1">
@@ -7513,19 +7593,19 @@
         <v>-3.2735558917807997E-17</v>
       </c>
       <c r="AL53" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.2749996712226199</v>
       </c>
       <c r="AM53" s="4">
-        <f>A53</f>
+        <f t="shared" si="3"/>
         <v>2.2749999999999999</v>
       </c>
     </row>
     <row r="54" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A54" s="18">
+      <c r="A54" s="17">
         <v>2.2999999999999998</v>
       </c>
-      <c r="B54" s="21">
+      <c r="B54" s="20">
         <v>0.24197055000000001</v>
       </c>
       <c r="C54" s="1">
@@ -7645,19 +7725,19 @@
         <v>-3.3653182251856002E-17</v>
       </c>
       <c r="AL54" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.3000001288880099</v>
       </c>
       <c r="AM54" s="4">
-        <f>A54</f>
+        <f t="shared" si="3"/>
         <v>2.2999999999999998</v>
       </c>
     </row>
     <row r="55" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A55" s="18">
+      <c r="A55" s="17">
         <v>2.3250000000000002</v>
       </c>
-      <c r="B55" s="21">
+      <c r="B55" s="20">
         <v>0.24670913</v>
       </c>
       <c r="C55" s="1">
@@ -7777,19 +7857,19 @@
         <v>-3.4570805585904001E-17</v>
       </c>
       <c r="AL55" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.3249998032785202</v>
       </c>
       <c r="AM55" s="4">
-        <f>A55</f>
+        <f t="shared" si="3"/>
         <v>2.3250000000000002</v>
       </c>
     </row>
     <row r="56" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A56" s="18">
+      <c r="A56" s="17">
         <v>2.35</v>
       </c>
-      <c r="B56" s="21">
+      <c r="B56" s="20">
         <v>0.25144891000000003</v>
       </c>
       <c r="C56" s="1">
@@ -7909,19 +7989,19 @@
         <v>-3.5488428919952E-17</v>
       </c>
       <c r="AL56" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.3500002609439097</v>
       </c>
       <c r="AM56" s="4">
-        <f>A56</f>
+        <f t="shared" si="3"/>
         <v>2.35</v>
       </c>
     </row>
     <row r="57" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A57" s="18">
+      <c r="A57" s="17">
         <v>2.375</v>
       </c>
-      <c r="B57" s="21">
+      <c r="B57" s="20">
         <v>0.25618981000000002</v>
       </c>
       <c r="C57" s="1">
@@ -8041,19 +8121,19 @@
         <v>-3.6406062140903998E-17</v>
       </c>
       <c r="AL57" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.3750000522697703</v>
       </c>
       <c r="AM57" s="4">
-        <f>A57</f>
+        <f t="shared" si="3"/>
         <v>2.375</v>
       </c>
     </row>
     <row r="58" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A58" s="18">
+      <c r="A58" s="17">
         <v>2.4</v>
       </c>
-      <c r="B58" s="21">
+      <c r="B58" s="20">
         <v>0.26093178</v>
       </c>
       <c r="C58" s="1">
@@ -8173,19 +8253,19 @@
         <v>-3.7323685474951997E-17</v>
       </c>
       <c r="AL58" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.3999997266602802</v>
       </c>
       <c r="AM58" s="4">
-        <f>A58</f>
+        <f t="shared" si="3"/>
         <v>2.4</v>
       </c>
     </row>
     <row r="59" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A59" s="18">
+      <c r="A59" s="17">
         <v>2.4249999999999998</v>
       </c>
-      <c r="B59" s="21">
+      <c r="B59" s="20">
         <v>0.26567476000000001</v>
       </c>
       <c r="C59" s="1">
@@ -8305,19 +8385,19 @@
         <v>-3.8241308808999996E-17</v>
       </c>
       <c r="AL59" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.4250002867814695</v>
       </c>
       <c r="AM59" s="4">
-        <f>A59</f>
+        <f t="shared" si="3"/>
         <v>2.4249999999999998</v>
       </c>
     </row>
     <row r="60" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A60" s="18">
+      <c r="A60" s="17">
         <v>2.4500000000000002</v>
       </c>
-      <c r="B60" s="21">
+      <c r="B60" s="20">
         <v>0.27041869000000002</v>
       </c>
       <c r="C60" s="1">
@@ -8437,19 +8517,19 @@
         <v>-3.9158932143048002E-17</v>
       </c>
       <c r="AL60" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.4499999611719803</v>
       </c>
       <c r="AM60" s="4">
-        <f>A60</f>
+        <f t="shared" si="3"/>
         <v>2.4500000000000002</v>
       </c>
     </row>
     <row r="61" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A61" s="18">
+      <c r="A61" s="17">
         <v>2.4750000000000001</v>
       </c>
-      <c r="B61" s="21">
+      <c r="B61" s="20">
         <v>0.27516352999999999</v>
       </c>
       <c r="C61" s="1">
@@ -8569,19 +8649,19 @@
         <v>-4.0076565364E-17</v>
       </c>
       <c r="AL61" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.4749997524978404</v>
       </c>
       <c r="AM61" s="4">
-        <f>A61</f>
+        <f t="shared" si="3"/>
         <v>2.4750000000000001</v>
       </c>
     </row>
     <row r="62" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A62" s="18">
+      <c r="A62" s="17">
         <v>2.5</v>
       </c>
-      <c r="B62" s="21">
+      <c r="B62" s="20">
         <v>0.27990923000000001</v>
       </c>
       <c r="C62" s="1">
@@ -8701,19 +8781,19 @@
         <v>-4.0994188698047999E-17</v>
       </c>
       <c r="AL62" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.5000002101632304</v>
       </c>
       <c r="AM62" s="4">
-        <f>A62</f>
+        <f t="shared" si="3"/>
         <v>2.5</v>
       </c>
     </row>
     <row r="63" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A63" s="18">
+      <c r="A63" s="17">
         <v>2.5249999999999999</v>
       </c>
-      <c r="B63" s="21">
+      <c r="B63" s="20">
         <v>0.28465573999999999</v>
       </c>
       <c r="C63" s="1">
@@ -8833,19 +8913,19 @@
         <v>-4.1911812032095998E-17</v>
       </c>
       <c r="AL63" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.5249998845537407</v>
       </c>
       <c r="AM63" s="4">
-        <f>A63</f>
+        <f t="shared" si="3"/>
         <v>2.5249999999999999</v>
       </c>
     </row>
     <row r="64" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A64" s="18">
+      <c r="A64" s="17">
         <v>2.5499999999999998</v>
       </c>
-      <c r="B64" s="21">
+      <c r="B64" s="20">
         <v>0.28940303000000001</v>
       </c>
       <c r="C64" s="1">
@@ -8965,19 +9045,19 @@
         <v>-4.2829445253047996E-17</v>
       </c>
       <c r="AL64" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.5500003422191311</v>
       </c>
       <c r="AM64" s="4">
-        <f>A64</f>
+        <f t="shared" si="3"/>
         <v>2.5499999999999998</v>
       </c>
     </row>
     <row r="65" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A65" s="18">
+      <c r="A65" s="17">
         <v>2.5750000000000002</v>
       </c>
-      <c r="B65" s="21">
+      <c r="B65" s="20">
         <v>0.29415107000000001</v>
       </c>
       <c r="C65" s="1">
@@ -9097,19 +9177,19 @@
         <v>-4.3747068587096001E-17</v>
       </c>
       <c r="AL65" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.5750000166096401</v>
       </c>
       <c r="AM65" s="4">
-        <f>A65</f>
+        <f t="shared" si="3"/>
         <v>2.5750000000000002</v>
       </c>
     </row>
     <row r="66" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A66" s="18">
+      <c r="A66" s="17">
         <v>2.6</v>
       </c>
-      <c r="B66" s="21">
+      <c r="B66" s="20">
         <v>0.29889979999999999</v>
       </c>
       <c r="C66" s="1">
@@ -9229,19 +9309,19 @@
         <v>-4.4664691921144E-17</v>
       </c>
       <c r="AL66" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.5999998079355002</v>
       </c>
       <c r="AM66" s="4">
-        <f>A66</f>
+        <f t="shared" si="3"/>
         <v>2.6</v>
       </c>
     </row>
     <row r="67" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A67" s="18">
+      <c r="A67" s="17">
         <v>2.625</v>
       </c>
-      <c r="B67" s="21">
+      <c r="B67" s="20">
         <v>0.30364921</v>
       </c>
       <c r="C67" s="1">
@@ -9293,7 +9373,7 @@
         <v>-7.3859309999999995E-17</v>
       </c>
       <c r="S67" s="2">
-        <f t="shared" ref="S67:S130" si="2">SUM(C67:R67)</f>
+        <f t="shared" ref="S67:S130" si="4">SUM(C67:R67)</f>
         <v>0.99999999999999989</v>
       </c>
       <c r="V67" s="1">
@@ -9361,19 +9441,19 @@
         <v>-7.3023990747623988E-17</v>
       </c>
       <c r="AL67" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.6250001486655403</v>
       </c>
       <c r="AM67" s="4">
-        <f>A67</f>
+        <f t="shared" ref="AM67:AM98" si="5">A67</f>
         <v>2.625</v>
       </c>
     </row>
     <row r="68" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A68" s="18">
+      <c r="A68" s="17">
         <v>2.65</v>
       </c>
-      <c r="B68" s="21">
+      <c r="B68" s="20">
         <v>0.30839925000000001</v>
       </c>
       <c r="C68" s="1">
@@ -9425,7 +9505,7 @@
         <v>-4.7031860000000001E-17</v>
       </c>
       <c r="S68" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="V68" s="1">
@@ -9493,19 +9573,19 @@
         <v>-4.6499948476143998E-17</v>
       </c>
       <c r="AL68" s="4">
-        <f t="shared" ref="AL68:AL131" si="3">SUM(V68:AK68)</f>
+        <f t="shared" ref="AL68:AL131" si="6">SUM(V68:AK68)</f>
         <v>2.6499999399913996</v>
       </c>
       <c r="AM68" s="4">
-        <f>A68</f>
+        <f t="shared" si="5"/>
         <v>2.65</v>
       </c>
     </row>
     <row r="69" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A69" s="18">
+      <c r="A69" s="17">
         <v>2.6749999999999998</v>
       </c>
-      <c r="B69" s="21">
+      <c r="B69" s="20">
         <v>0.31314990999999998</v>
       </c>
       <c r="C69" s="1">
@@ -9557,7 +9637,7 @@
         <v>-7.5715550000000001E-17</v>
       </c>
       <c r="S69" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.0000001000000001</v>
       </c>
       <c r="V69" s="1">
@@ -9625,19 +9705,19 @@
         <v>-7.4859237415719998E-17</v>
       </c>
       <c r="AL69" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>2.67500039765679</v>
       </c>
       <c r="AM69" s="4">
-        <f>A69</f>
+        <f t="shared" si="5"/>
         <v>2.6749999999999998</v>
       </c>
     </row>
     <row r="70" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A70" s="18">
+      <c r="A70" s="17">
         <v>2.7</v>
       </c>
-      <c r="B70" s="21">
+      <c r="B70" s="20">
         <v>0.31790115000000002</v>
       </c>
       <c r="C70" s="1">
@@ -9689,7 +9769,7 @@
         <v>-4.8888100000000001E-17</v>
       </c>
       <c r="S70" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="V70" s="1">
@@ -9757,19 +9837,19 @@
         <v>-4.8335195144240002E-17</v>
       </c>
       <c r="AL70" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>2.7000000720472999</v>
       </c>
       <c r="AM70" s="4">
-        <f>A70</f>
+        <f t="shared" si="5"/>
         <v>2.7</v>
       </c>
     </row>
     <row r="71" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A71" s="18">
+      <c r="A71" s="17">
         <v>2.7250000000000001</v>
       </c>
-      <c r="B71" s="21">
+      <c r="B71" s="20">
         <v>0.32265294</v>
       </c>
       <c r="C71" s="1">
@@ -9821,7 +9901,7 @@
         <v>-4.9816219999999998E-17</v>
       </c>
       <c r="S71" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="V71" s="1">
@@ -9889,19 +9969,19 @@
         <v>-4.9252818478287995E-17</v>
       </c>
       <c r="AL71" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>2.72499986337316</v>
       </c>
       <c r="AM71" s="4">
-        <f>A71</f>
+        <f t="shared" si="5"/>
         <v>2.7250000000000001</v>
       </c>
     </row>
     <row r="72" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A72" s="18">
+      <c r="A72" s="17">
         <v>2.75</v>
       </c>
-      <c r="B72" s="21">
+      <c r="B72" s="20">
         <v>0.32740527000000003</v>
       </c>
       <c r="C72" s="1">
@@ -9953,7 +10033,7 @@
         <v>-5.0744349999999999E-17</v>
       </c>
       <c r="S72" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.0000000000000004</v>
       </c>
       <c r="V72" s="1">
@@ -10021,19 +10101,19 @@
         <v>-5.0170451699239999E-17</v>
       </c>
       <c r="AL72" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>2.7500002041032006</v>
       </c>
       <c r="AM72" s="4">
-        <f>A72</f>
+        <f t="shared" si="5"/>
         <v>2.75</v>
       </c>
     </row>
     <row r="73" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A73" s="18">
+      <c r="A73" s="17">
         <v>2.7749999999999999</v>
       </c>
-      <c r="B73" s="21">
+      <c r="B73" s="20">
         <v>0.33215811000000001</v>
       </c>
       <c r="C73" s="1">
@@ -10085,7 +10165,7 @@
         <v>-5.1672470000000002E-17</v>
       </c>
       <c r="S73" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="V73" s="1">
@@ -10153,19 +10233,19 @@
         <v>-5.1088075033287998E-17</v>
       </c>
       <c r="AL73" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>2.7749999954290603</v>
       </c>
       <c r="AM73" s="4">
-        <f>A73</f>
+        <f t="shared" si="5"/>
         <v>2.7749999999999999</v>
       </c>
     </row>
     <row r="74" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A74" s="18">
+      <c r="A74" s="17">
         <v>2.8</v>
       </c>
-      <c r="B74" s="21">
+      <c r="B74" s="20">
         <v>0.33691144000000001</v>
       </c>
       <c r="C74" s="1">
@@ -10217,7 +10297,7 @@
         <v>-2.4845019999999999E-17</v>
       </c>
       <c r="S74" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="V74" s="1">
@@ -10285,19 +10365,19 @@
         <v>-2.4564032761807998E-17</v>
       </c>
       <c r="AL74" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>2.79999978675492</v>
       </c>
       <c r="AM74" s="4">
-        <f>A74</f>
+        <f t="shared" si="5"/>
         <v>2.8</v>
       </c>
     </row>
     <row r="75" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A75" s="18">
+      <c r="A75" s="17">
         <v>2.8250000000000002</v>
       </c>
-      <c r="B75" s="21">
+      <c r="B75" s="20">
         <v>0.34166523999999998</v>
       </c>
       <c r="C75" s="1">
@@ -10349,7 +10429,7 @@
         <v>-8.1284290000000003E-17</v>
       </c>
       <c r="S75" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.99999999999999989</v>
       </c>
       <c r="V75" s="1">
@@ -10417,19 +10497,19 @@
         <v>-8.0364997193816003E-17</v>
       </c>
       <c r="AL75" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>2.8250001274849601</v>
       </c>
       <c r="AM75" s="4">
-        <f>A75</f>
+        <f t="shared" si="5"/>
         <v>2.8250000000000002</v>
       </c>
     </row>
     <row r="76" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A76" s="18">
+      <c r="A76" s="17">
         <v>2.85</v>
       </c>
-      <c r="B76" s="21">
+      <c r="B76" s="20">
         <v>0.34641949</v>
       </c>
       <c r="C76" s="1">
@@ -10481,7 +10561,7 @@
         <v>-5.4456839999999997E-17</v>
       </c>
       <c r="S76" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="V76" s="1">
@@ -10549,19 +10629,19 @@
         <v>-5.3840954922335994E-17</v>
       </c>
       <c r="AL76" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>2.8499999188108203</v>
       </c>
       <c r="AM76" s="4">
-        <f>A76</f>
+        <f t="shared" si="5"/>
         <v>2.85</v>
       </c>
     </row>
     <row r="77" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A77" s="18">
+      <c r="A77" s="17">
         <v>2.875</v>
       </c>
-      <c r="B77" s="21">
+      <c r="B77" s="20">
         <v>0.35117416000000001</v>
       </c>
       <c r="C77" s="1">
@@ -10613,7 +10693,7 @@
         <v>-5.538496E-17</v>
       </c>
       <c r="S77" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.0000000000000002</v>
       </c>
       <c r="V77" s="1">
@@ -10681,19 +10761,19 @@
         <v>-5.4758578256384E-17</v>
       </c>
       <c r="AL77" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>2.8750002595408604</v>
       </c>
       <c r="AM77" s="4">
-        <f>A77</f>
+        <f t="shared" si="5"/>
         <v>2.875</v>
       </c>
     </row>
     <row r="78" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A78" s="18">
+      <c r="A78" s="17">
         <v>2.9</v>
       </c>
-      <c r="B78" s="21">
+      <c r="B78" s="20">
         <v>0.35592924999999997</v>
       </c>
       <c r="C78" s="1">
@@ -10745,7 +10825,7 @@
         <v>-5.6313079999999997E-17</v>
       </c>
       <c r="S78" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.99999999999999989</v>
       </c>
       <c r="V78" s="1">
@@ -10813,19 +10893,19 @@
         <v>-5.5676201590431992E-17</v>
       </c>
       <c r="AL78" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>2.9000000508667201</v>
       </c>
       <c r="AM78" s="4">
-        <f>A78</f>
+        <f t="shared" si="5"/>
         <v>2.9</v>
       </c>
     </row>
     <row r="79" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A79" s="18">
+      <c r="A79" s="17">
         <v>2.9249999999999998</v>
       </c>
-      <c r="B79" s="21">
+      <c r="B79" s="20">
         <v>0.36068474</v>
       </c>
       <c r="C79" s="1">
@@ -10877,7 +10957,7 @@
         <v>-5.72412E-17</v>
       </c>
       <c r="S79" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.99999989999999994</v>
       </c>
       <c r="V79" s="1">
@@ -10945,19 +11025,19 @@
         <v>-5.6593824924480004E-17</v>
       </c>
       <c r="AL79" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>2.9249997252572304</v>
       </c>
       <c r="AM79" s="4">
-        <f>A79</f>
+        <f t="shared" si="5"/>
         <v>2.9249999999999998</v>
       </c>
     </row>
     <row r="80" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A80" s="18">
+      <c r="A80" s="17">
         <v>2.95</v>
       </c>
-      <c r="B80" s="21">
+      <c r="B80" s="20">
         <v>0.36544061</v>
       </c>
       <c r="C80" s="1">
@@ -11009,7 +11089,7 @@
         <v>-3.041375E-17</v>
       </c>
       <c r="S80" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.0000000000000002</v>
       </c>
       <c r="V80" s="1">
@@ -11077,19 +11157,19 @@
         <v>-3.0069782653000001E-17</v>
       </c>
       <c r="AL80" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>2.9500001829226203</v>
       </c>
       <c r="AM80" s="4">
-        <f>A80</f>
+        <f t="shared" si="5"/>
         <v>2.95</v>
       </c>
     </row>
     <row r="81" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A81" s="18">
+      <c r="A81" s="17">
         <v>2.9750000000000001</v>
       </c>
-      <c r="B81" s="21">
+      <c r="B81" s="20">
         <v>0.37019685000000002</v>
       </c>
       <c r="C81" s="1">
@@ -11141,7 +11221,7 @@
         <v>-5.9097450000000004E-17</v>
       </c>
       <c r="S81" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.0000000000000002</v>
       </c>
       <c r="V81" s="1">
@@ -11209,19 +11289,19 @@
         <v>-5.8429081479480007E-17</v>
       </c>
       <c r="AL81" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>2.9749999742484801</v>
       </c>
       <c r="AM81" s="4">
-        <f>A81</f>
+        <f t="shared" si="5"/>
         <v>2.9750000000000001</v>
       </c>
     </row>
     <row r="82" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A82" s="18">
+      <c r="A82" s="17">
         <v>3</v>
       </c>
-      <c r="B82" s="21">
+      <c r="B82" s="20">
         <v>0.37495344000000003</v>
       </c>
       <c r="C82" s="1">
@@ -11273,7 +11353,7 @@
         <v>-6.0025569999999995E-17</v>
       </c>
       <c r="S82" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.99999990000000016</v>
       </c>
       <c r="V82" s="1">
@@ -11341,19 +11421,19 @@
         <v>-5.9346704813527994E-17</v>
       </c>
       <c r="AL82" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>2.9999996486389904</v>
       </c>
       <c r="AM82" s="4">
-        <f>A82</f>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
     </row>
     <row r="83" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A83" s="18">
+      <c r="A83" s="17">
         <v>3.0249999999999999</v>
       </c>
-      <c r="B83" s="21">
+      <c r="B83" s="20">
         <v>0.37971037000000002</v>
       </c>
       <c r="C83" s="1">
@@ -11405,7 +11485,7 @@
         <v>-8.8709269999999999E-17</v>
       </c>
       <c r="S83" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.0000000000000002</v>
       </c>
       <c r="V83" s="1">
@@ -11473,19 +11553,19 @@
         <v>-8.7706003640007994E-17</v>
       </c>
       <c r="AL83" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>3.0250001063043808</v>
       </c>
       <c r="AM83" s="4">
-        <f>A83</f>
+        <f t="shared" si="5"/>
         <v>3.0249999999999999</v>
       </c>
     </row>
     <row r="84" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A84" s="18">
+      <c r="A84" s="17">
         <v>3.05</v>
       </c>
-      <c r="B84" s="21">
+      <c r="B84" s="20">
         <v>0.38446763</v>
       </c>
       <c r="C84" s="1">
@@ -11537,7 +11617,7 @@
         <v>-6.1881819999999999E-17</v>
       </c>
       <c r="S84" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.99999989999999994</v>
       </c>
       <c r="V84" s="1">
@@ -11605,19 +11685,19 @@
         <v>-6.1181961368527997E-17</v>
       </c>
       <c r="AL84" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>3.0499997806948906</v>
       </c>
       <c r="AM84" s="4">
-        <f>A84</f>
+        <f t="shared" si="5"/>
         <v>3.05</v>
       </c>
     </row>
     <row r="85" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A85" s="18">
+      <c r="A85" s="17">
         <v>3.0750000000000002</v>
       </c>
-      <c r="B85" s="21">
+      <c r="B85" s="20">
         <v>0.38922519999999999</v>
       </c>
       <c r="C85" s="1">
@@ -11669,7 +11749,7 @@
         <v>-9.0565520000000003E-17</v>
       </c>
       <c r="S85" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.0000000000000002</v>
       </c>
       <c r="V85" s="1">
@@ -11737,19 +11817,19 @@
         <v>-8.9541260195007997E-17</v>
       </c>
       <c r="AL85" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>3.0750002383602806</v>
       </c>
       <c r="AM85" s="4">
-        <f>A85</f>
+        <f t="shared" si="5"/>
         <v>3.0750000000000002</v>
       </c>
     </row>
     <row r="86" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A86" s="18">
+      <c r="A86" s="17">
         <v>3.1</v>
       </c>
-      <c r="B86" s="21">
+      <c r="B86" s="20">
         <v>0.39398307999999999</v>
       </c>
       <c r="C86" s="1">
@@ -11801,7 +11881,7 @@
         <v>-6.3738060000000005E-17</v>
       </c>
       <c r="S86" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.0000000000000002</v>
       </c>
       <c r="V86" s="1">
@@ -11869,19 +11949,19 @@
         <v>-6.3017208036624008E-17</v>
       </c>
       <c r="AL86" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>3.1000000152065907</v>
       </c>
       <c r="AM86" s="4">
-        <f>A86</f>
+        <f t="shared" si="5"/>
         <v>3.1</v>
       </c>
     </row>
     <row r="87" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A87" s="18">
+      <c r="A87" s="17">
         <v>3.125</v>
       </c>
-      <c r="B87" s="21">
+      <c r="B87" s="20">
         <v>0.39874124</v>
       </c>
       <c r="C87" s="1">
@@ -11933,7 +12013,7 @@
         <v>-6.4666189999999994E-17</v>
       </c>
       <c r="S87" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.99999999999999989</v>
       </c>
       <c r="V87" s="1">
@@ -12001,19 +12081,19 @@
         <v>-6.3934841257575987E-17</v>
       </c>
       <c r="AL87" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>3.1249998065324505</v>
       </c>
       <c r="AM87" s="4">
-        <f>A87</f>
+        <f t="shared" si="5"/>
         <v>3.125</v>
       </c>
     </row>
     <row r="88" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A88" s="18">
+      <c r="A88" s="17">
         <v>3.15</v>
       </c>
-      <c r="B88" s="21">
+      <c r="B88" s="20">
         <v>0.40349970000000002</v>
       </c>
       <c r="C88" s="1">
@@ -12065,7 +12145,7 @@
         <v>-6.5594309999999997E-17</v>
       </c>
       <c r="S88" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.0000001000000001</v>
       </c>
       <c r="V88" s="1">
@@ -12133,19 +12213,19 @@
         <v>-6.4852464591623999E-17</v>
       </c>
       <c r="AL88" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>3.1500002641978408</v>
       </c>
       <c r="AM88" s="4">
-        <f>A88</f>
+        <f t="shared" si="5"/>
         <v>3.15</v>
       </c>
     </row>
     <row r="89" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A89" s="18">
+      <c r="A89" s="17">
         <v>3.1749999999999998</v>
       </c>
-      <c r="B89" s="21">
+      <c r="B89" s="20">
         <v>0.40825842000000001</v>
       </c>
       <c r="C89" s="1">
@@ -12197,7 +12277,7 @@
         <v>-6.652243E-17</v>
       </c>
       <c r="S89" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.0000000000000002</v>
       </c>
       <c r="V89" s="1">
@@ -12265,19 +12345,19 @@
         <v>-6.5770087925671998E-17</v>
       </c>
       <c r="AL89" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>3.1749999385883507</v>
       </c>
       <c r="AM89" s="4">
-        <f>A89</f>
+        <f t="shared" si="5"/>
         <v>3.1749999999999998</v>
       </c>
     </row>
     <row r="90" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A90" s="18">
+      <c r="A90" s="17">
         <v>3.2</v>
       </c>
-      <c r="B90" s="21">
+      <c r="B90" s="20">
         <v>0.41301740999999997</v>
       </c>
       <c r="C90" s="1">
@@ -12329,7 +12409,7 @@
         <v>-6.7450550000000004E-17</v>
       </c>
       <c r="S90" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.0000001000000003</v>
       </c>
       <c r="V90" s="1">
@@ -12397,19 +12477,19 @@
         <v>-6.6687711259719997E-17</v>
       </c>
       <c r="AL90" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>3.2000003962537407</v>
       </c>
       <c r="AM90" s="4">
-        <f>A90</f>
+        <f t="shared" si="5"/>
         <v>3.2</v>
       </c>
     </row>
     <row r="91" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A91" s="18">
+      <c r="A91" s="17">
         <v>3.2250000000000001</v>
       </c>
-      <c r="B91" s="21">
+      <c r="B91" s="20">
         <v>0.41777665000000003</v>
       </c>
       <c r="C91" s="1">
@@ -12461,7 +12541,7 @@
         <v>-9.6134249999999995E-17</v>
       </c>
       <c r="S91" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.0000000000000002</v>
       </c>
       <c r="V91" s="1">
@@ -12529,19 +12609,19 @@
         <v>-9.5047010086199997E-17</v>
       </c>
       <c r="AL91" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>3.225000070644251</v>
       </c>
       <c r="AM91" s="4">
-        <f>A91</f>
+        <f t="shared" si="5"/>
         <v>3.2250000000000001</v>
       </c>
     </row>
     <row r="92" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A92" s="18">
+      <c r="A92" s="17">
         <v>3.25</v>
       </c>
-      <c r="B92" s="21">
+      <c r="B92" s="20">
         <v>0.42253614</v>
       </c>
       <c r="C92" s="1">
@@ -12593,7 +12673,7 @@
         <v>-6.9306799999999995E-17</v>
       </c>
       <c r="S92" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.0000000000000002</v>
       </c>
       <c r="V92" s="1">
@@ -12661,19 +12741,19 @@
         <v>-6.8522967814719988E-17</v>
       </c>
       <c r="AL92" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>3.2499998619701107</v>
       </c>
       <c r="AM92" s="4">
-        <f>A92</f>
+        <f t="shared" si="5"/>
         <v>3.25</v>
       </c>
     </row>
     <row r="93" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A93" s="18">
+      <c r="A93" s="17">
         <v>3.2749999999999999</v>
       </c>
-      <c r="B93" s="21">
+      <c r="B93" s="20">
         <v>0.42729586000000003</v>
       </c>
       <c r="C93" s="1">
@@ -12725,7 +12805,7 @@
         <v>-7.0234919999999999E-17</v>
       </c>
       <c r="S93" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.0000000999999996</v>
       </c>
       <c r="V93" s="1">
@@ -12793,19 +12873,19 @@
         <v>-6.9440591148767999E-17</v>
       </c>
       <c r="AL93" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>3.2750003196355006</v>
       </c>
       <c r="AM93" s="4">
-        <f>A93</f>
+        <f t="shared" si="5"/>
         <v>3.2749999999999999</v>
       </c>
     </row>
     <row r="94" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A94" s="18">
+      <c r="A94" s="17">
         <v>3.3</v>
       </c>
-      <c r="B94" s="21">
+      <c r="B94" s="20">
         <v>0.43205580999999998</v>
       </c>
       <c r="C94" s="1">
@@ -12857,7 +12937,7 @@
         <v>-4.3407469999999999E-17</v>
       </c>
       <c r="S94" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.0000000000000002</v>
       </c>
       <c r="V94" s="1">
@@ -12925,19 +13005,19 @@
         <v>-4.2916548877287997E-17</v>
       </c>
       <c r="AL94" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>3.2999999940260105</v>
       </c>
       <c r="AM94" s="4">
-        <f>A94</f>
+        <f t="shared" si="5"/>
         <v>3.3</v>
       </c>
     </row>
     <row r="95" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A95" s="18">
+      <c r="A95" s="17">
         <v>3.3250000000000002</v>
       </c>
-      <c r="B95" s="21">
+      <c r="B95" s="20">
         <v>0.43681598999999999</v>
       </c>
       <c r="C95" s="1">
@@ -12989,7 +13069,7 @@
         <v>-7.2091170000000003E-17</v>
       </c>
       <c r="S95" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.0000000000000002</v>
       </c>
       <c r="V95" s="1">
@@ -13057,19 +13137,19 @@
         <v>-7.1275847703768003E-17</v>
       </c>
       <c r="AL95" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>3.3249997853518702</v>
       </c>
       <c r="AM95" s="4">
-        <f>A95</f>
+        <f t="shared" si="5"/>
         <v>3.3250000000000002</v>
       </c>
     </row>
     <row r="96" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A96" s="18">
+      <c r="A96" s="17">
         <v>3.35</v>
       </c>
-      <c r="B96" s="21">
+      <c r="B96" s="20">
         <v>0.44157637999999999</v>
       </c>
       <c r="C96" s="1">
@@ -13121,7 +13201,7 @@
         <v>-7.3019290000000006E-17</v>
       </c>
       <c r="S96" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.99999999999999967</v>
       </c>
       <c r="V96" s="1">
@@ -13189,19 +13269,19 @@
         <v>-7.2193471037816002E-17</v>
       </c>
       <c r="AL96" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>3.3500001260819099</v>
       </c>
       <c r="AM96" s="4">
-        <f>A96</f>
+        <f t="shared" si="5"/>
         <v>3.35</v>
       </c>
     </row>
     <row r="97" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A97" s="18">
+      <c r="A97" s="17">
         <v>3.375</v>
       </c>
-      <c r="B97" s="21">
+      <c r="B97" s="20">
         <v>0.44633697999999999</v>
       </c>
       <c r="C97" s="1">
@@ -13253,7 +13333,7 @@
         <v>-7.3947409999999997E-17</v>
       </c>
       <c r="S97" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.99999999999999989</v>
       </c>
       <c r="V97" s="1">
@@ -13321,19 +13401,19 @@
         <v>-7.3111094371863988E-17</v>
       </c>
       <c r="AL97" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>3.3749999174077705</v>
       </c>
       <c r="AM97" s="4">
-        <f>A97</f>
+        <f t="shared" si="5"/>
         <v>3.375</v>
       </c>
     </row>
     <row r="98" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A98" s="18">
+      <c r="A98" s="17">
         <v>3.4</v>
       </c>
-      <c r="B98" s="21">
+      <c r="B98" s="20">
         <v>0.45109778</v>
       </c>
       <c r="C98" s="1">
@@ -13385,7 +13465,7 @@
         <v>-7.487553E-17</v>
       </c>
       <c r="S98" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.0000000000000002</v>
       </c>
       <c r="V98" s="1">
@@ -13453,19 +13533,19 @@
         <v>-7.4028717705912E-17</v>
       </c>
       <c r="AL98" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>3.4000002581378106</v>
       </c>
       <c r="AM98" s="4">
-        <f>A98</f>
+        <f t="shared" si="5"/>
         <v>3.4</v>
       </c>
     </row>
     <row r="99" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A99" s="18">
+      <c r="A99" s="17">
         <v>3.4249999999999998</v>
       </c>
-      <c r="B99" s="21">
+      <c r="B99" s="20">
         <v>0.45585878000000002</v>
       </c>
       <c r="C99" s="1">
@@ -13517,7 +13597,7 @@
         <v>-7.5803660000000001E-17</v>
       </c>
       <c r="S99" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.99999999999999956</v>
       </c>
       <c r="V99" s="1">
@@ -13585,19 +13665,19 @@
         <v>-7.4946350926864004E-17</v>
       </c>
       <c r="AL99" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>3.4250000494636703</v>
       </c>
       <c r="AM99" s="4">
-        <f>A99</f>
+        <f t="shared" ref="AM99:AM130" si="7">A99</f>
         <v>3.4249999999999998</v>
       </c>
     </row>
     <row r="100" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A100" s="18">
+      <c r="A100" s="17">
         <v>3.45</v>
       </c>
-      <c r="B100" s="21">
+      <c r="B100" s="20">
         <v>0.46061995999999999</v>
       </c>
       <c r="C100" s="1">
@@ -13649,7 +13729,7 @@
         <v>-7.6731780000000004E-17</v>
       </c>
       <c r="S100" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.0000000000000002</v>
       </c>
       <c r="V100" s="1">
@@ -13717,19 +13797,19 @@
         <v>-7.5863974260912003E-17</v>
       </c>
       <c r="AL100" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>3.4499998407895305</v>
       </c>
       <c r="AM100" s="4">
-        <f>A100</f>
+        <f t="shared" si="7"/>
         <v>3.45</v>
       </c>
     </row>
     <row r="101" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A101" s="18">
+      <c r="A101" s="17">
         <v>3.4750000000000001</v>
       </c>
-      <c r="B101" s="21">
+      <c r="B101" s="20">
         <v>0.46538132999999998</v>
       </c>
       <c r="C101" s="1">
@@ -13781,7 +13861,7 @@
         <v>-7.7659899999999995E-17</v>
       </c>
       <c r="S101" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.0000000000000002</v>
       </c>
       <c r="V101" s="1">
@@ -13849,19 +13929,19 @@
         <v>-7.678159759495999E-17</v>
       </c>
       <c r="AL101" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>3.4750001815195706</v>
       </c>
       <c r="AM101" s="4">
-        <f>A101</f>
+        <f t="shared" si="7"/>
         <v>3.4750000000000001</v>
       </c>
     </row>
     <row r="102" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A102" s="18">
+      <c r="A102" s="17">
         <v>3.5</v>
       </c>
-      <c r="B102" s="21">
+      <c r="B102" s="20">
         <v>0.47014286999999999</v>
       </c>
       <c r="C102" s="1">
@@ -13913,7 +13993,7 @@
         <v>-7.8588019999999998E-17</v>
       </c>
       <c r="S102" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.99999999999999978</v>
       </c>
       <c r="V102" s="1">
@@ -13981,19 +14061,19 @@
         <v>-7.7699220929008001E-17</v>
       </c>
       <c r="AL102" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>3.4999999728454303</v>
       </c>
       <c r="AM102" s="4">
-        <f>A102</f>
+        <f t="shared" si="7"/>
         <v>3.5</v>
       </c>
     </row>
     <row r="103" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A103" s="18">
+      <c r="A103" s="17">
         <v>3.5249999999999999</v>
       </c>
-      <c r="B103" s="21">
+      <c r="B103" s="20">
         <v>0.47490459000000002</v>
       </c>
       <c r="C103" s="1">
@@ -14045,7 +14125,7 @@
         <v>-7.9516149999999999E-17</v>
       </c>
       <c r="S103" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.99999990000000016</v>
       </c>
       <c r="V103" s="1">
@@ -14113,19 +14193,19 @@
         <v>-7.8616854149959993E-17</v>
       </c>
       <c r="AL103" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>3.5249996472359406</v>
       </c>
       <c r="AM103" s="4">
-        <f>A103</f>
+        <f t="shared" si="7"/>
         <v>3.5249999999999999</v>
       </c>
     </row>
     <row r="104" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A104" s="18">
+      <c r="A104" s="17">
         <v>3.55</v>
       </c>
-      <c r="B104" s="21">
+      <c r="B104" s="20">
         <v>0.47966648000000001</v>
       </c>
       <c r="C104" s="1">
@@ -14177,7 +14257,7 @@
         <v>-8.0444270000000002E-17</v>
       </c>
       <c r="S104" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.0000000000000002</v>
       </c>
       <c r="V104" s="1">
@@ -14245,19 +14325,19 @@
         <v>-7.9534477484008005E-17</v>
       </c>
       <c r="AL104" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>3.5500001049013306</v>
       </c>
       <c r="AM104" s="4">
-        <f>A104</f>
+        <f t="shared" si="7"/>
         <v>3.55</v>
       </c>
     </row>
     <row r="105" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A105" s="18">
+      <c r="A105" s="17">
         <v>3.5750000000000002</v>
       </c>
-      <c r="B105" s="21">
+      <c r="B105" s="20">
         <v>0.48442853000000002</v>
       </c>
       <c r="C105" s="1">
@@ -14309,7 +14389,7 @@
         <v>-8.1372390000000005E-17</v>
       </c>
       <c r="S105" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.0000000000000002</v>
       </c>
       <c r="V105" s="1">
@@ -14377,19 +14457,19 @@
         <v>-8.0452100818056004E-17</v>
       </c>
       <c r="AL105" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>3.5749998962271907</v>
       </c>
       <c r="AM105" s="4">
-        <f>A105</f>
+        <f t="shared" si="7"/>
         <v>3.5750000000000002</v>
       </c>
     </row>
     <row r="106" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A106" s="18">
+      <c r="A106" s="17">
         <v>3.6</v>
       </c>
-      <c r="B106" s="21">
+      <c r="B106" s="20">
         <v>0.48919073000000002</v>
       </c>
       <c r="C106" s="1">
@@ -14441,7 +14521,7 @@
         <v>-8.2300509999999996E-17</v>
       </c>
       <c r="S106" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.0000000000000002</v>
       </c>
       <c r="V106" s="1">
@@ -14509,19 +14589,19 @@
         <v>-8.136972415210399E-17</v>
       </c>
       <c r="AL106" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>3.6000002369572304</v>
       </c>
       <c r="AM106" s="4">
-        <f>A106</f>
+        <f t="shared" si="7"/>
         <v>3.6</v>
       </c>
     </row>
     <row r="107" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A107" s="18">
+      <c r="A107" s="17">
         <v>3.625</v>
       </c>
-      <c r="B107" s="21">
+      <c r="B107" s="20">
         <v>0.49395308999999998</v>
       </c>
       <c r="C107" s="1">
@@ -14573,7 +14653,7 @@
         <v>-8.3228639999999997E-17</v>
       </c>
       <c r="S107" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.0000000000000002</v>
       </c>
       <c r="V107" s="1">
@@ -14641,19 +14721,19 @@
         <v>-8.2287357373055995E-17</v>
       </c>
       <c r="AL107" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>3.625000028283091</v>
       </c>
       <c r="AM107" s="4">
-        <f>A107</f>
+        <f t="shared" si="7"/>
         <v>3.625</v>
       </c>
     </row>
     <row r="108" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A108" s="18">
+      <c r="A108" s="17">
         <v>3.65</v>
       </c>
-      <c r="B108" s="21">
+      <c r="B108" s="20">
         <v>0.49871558999999999</v>
       </c>
       <c r="C108" s="1">
@@ -14705,7 +14785,7 @@
         <v>-8.415676E-17</v>
       </c>
       <c r="S108" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.99999990000000027</v>
       </c>
       <c r="V108" s="1">
@@ -14773,19 +14853,19 @@
         <v>-8.3204980707103994E-17</v>
       </c>
       <c r="AL108" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>3.6499997026736009</v>
       </c>
       <c r="AM108" s="4">
-        <f>A108</f>
+        <f t="shared" si="7"/>
         <v>3.65</v>
       </c>
     </row>
     <row r="109" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A109" s="18">
+      <c r="A109" s="17">
         <v>3.6749999999999998</v>
       </c>
-      <c r="B109" s="21">
+      <c r="B109" s="20">
         <v>0.50347825000000002</v>
       </c>
       <c r="C109" s="1">
@@ -14837,7 +14917,7 @@
         <v>-8.5084880000000003E-17</v>
       </c>
       <c r="S109" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.0000000000000004</v>
       </c>
       <c r="V109" s="1">
@@ -14905,19 +14985,19 @@
         <v>-8.4122604041152005E-17</v>
       </c>
       <c r="AL109" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>3.6750001603389908</v>
       </c>
       <c r="AM109" s="4">
-        <f>A109</f>
+        <f t="shared" si="7"/>
         <v>3.6749999999999998</v>
       </c>
     </row>
     <row r="110" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A110" s="18">
+      <c r="A110" s="17">
         <v>3.7</v>
       </c>
-      <c r="B110" s="21">
+      <c r="B110" s="20">
         <v>0.50824104000000003</v>
       </c>
       <c r="C110" s="1">
@@ -14969,7 +15049,7 @@
         <v>-8.6013000000000006E-17</v>
       </c>
       <c r="S110" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.99999990000000016</v>
       </c>
       <c r="V110" s="1">
@@ -15037,19 +15117,19 @@
         <v>-8.5040227375200004E-17</v>
       </c>
       <c r="AL110" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>3.6999998347295007</v>
       </c>
       <c r="AM110" s="4">
-        <f>A110</f>
+        <f t="shared" si="7"/>
         <v>3.7</v>
       </c>
     </row>
     <row r="111" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A111" s="18">
+      <c r="A111" s="17">
         <v>3.7250000000000001</v>
       </c>
-      <c r="B111" s="21">
+      <c r="B111" s="20">
         <v>0.51300396999999998</v>
       </c>
       <c r="C111" s="1">
@@ -15101,7 +15181,7 @@
         <v>-8.6941129999999995E-17</v>
       </c>
       <c r="S111" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.0000000000000002</v>
       </c>
       <c r="V111" s="1">
@@ -15169,19 +15249,19 @@
         <v>-8.5957860596151996E-17</v>
       </c>
       <c r="AL111" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>3.7250002923948902</v>
       </c>
       <c r="AM111" s="4">
-        <f>A111</f>
+        <f t="shared" si="7"/>
         <v>3.7250000000000001</v>
       </c>
     </row>
     <row r="112" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A112" s="18">
+      <c r="A112" s="17">
         <v>3.75</v>
       </c>
-      <c r="B112" s="21">
+      <c r="B112" s="20">
         <v>0.51776703000000002</v>
       </c>
       <c r="C112" s="1">
@@ -15233,7 +15313,7 @@
         <v>-8.7869249999999998E-17</v>
       </c>
       <c r="S112" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.0000000000000004</v>
       </c>
       <c r="V112" s="1">
@@ -15301,19 +15381,19 @@
         <v>-8.6875483930199995E-17</v>
       </c>
       <c r="AL112" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>3.7500000837207512</v>
       </c>
       <c r="AM112" s="4">
-        <f>A112</f>
+        <f t="shared" si="7"/>
         <v>3.75</v>
       </c>
     </row>
     <row r="113" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A113" s="18">
+      <c r="A113" s="17">
         <v>3.7749999999999999</v>
       </c>
-      <c r="B113" s="21">
+      <c r="B113" s="20">
         <v>0.52253020999999999</v>
       </c>
       <c r="C113" s="1">
@@ -15365,7 +15445,7 @@
         <v>-8.8797370000000001E-17</v>
       </c>
       <c r="S113" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.0000000000000004</v>
       </c>
       <c r="V113" s="1">
@@ -15433,19 +15513,19 @@
         <v>-8.7793107264247994E-17</v>
       </c>
       <c r="AL113" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>3.7749998605670605</v>
       </c>
       <c r="AM113" s="4">
-        <f>A113</f>
+        <f t="shared" si="7"/>
         <v>3.7749999999999999</v>
       </c>
     </row>
     <row r="114" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A114" s="18">
+      <c r="A114" s="17">
         <v>3.8</v>
       </c>
-      <c r="B114" s="21">
+      <c r="B114" s="20">
         <v>0.52729353000000001</v>
       </c>
       <c r="C114" s="1">
@@ -15497,7 +15577,7 @@
         <v>-8.9725500000000002E-17</v>
       </c>
       <c r="S114" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.0000000999999998</v>
       </c>
       <c r="V114" s="1">
@@ -15565,19 +15645,19 @@
         <v>-8.8710740485199999E-17</v>
       </c>
       <c r="AL114" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>3.8000003182324504</v>
       </c>
       <c r="AM114" s="4">
-        <f>A114</f>
+        <f t="shared" si="7"/>
         <v>3.8</v>
       </c>
     </row>
     <row r="115" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A115" s="18">
+      <c r="A115" s="17">
         <v>3.8250000000000002</v>
       </c>
-      <c r="B115" s="21">
+      <c r="B115" s="20">
         <v>0.53205696999999996</v>
       </c>
       <c r="C115" s="1">
@@ -15629,7 +15709,7 @@
         <v>-9.0653620000000005E-17</v>
       </c>
       <c r="S115" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.99999996000000024</v>
       </c>
       <c r="V115" s="1">
@@ -15697,19 +15777,19 @@
         <v>-8.9628363819247998E-17</v>
       </c>
       <c r="AL115" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>3.8249999516406405</v>
       </c>
       <c r="AM115" s="4">
-        <f>A115</f>
+        <f t="shared" si="7"/>
         <v>3.8250000000000002</v>
       </c>
     </row>
     <row r="116" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A116" s="18">
+      <c r="A116" s="17">
         <v>3.85</v>
       </c>
-      <c r="B116" s="21">
+      <c r="B116" s="20">
         <v>0.53682052000000002</v>
       </c>
       <c r="C116" s="1">
@@ -15761,7 +15841,7 @@
         <v>-9.1581739999999996E-17</v>
       </c>
       <c r="S116" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.99999996000000013</v>
       </c>
       <c r="V116" s="1">
@@ -15829,19 +15909,19 @@
         <v>-9.0545987153295997E-17</v>
       </c>
       <c r="AL116" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>3.8499997429665003</v>
       </c>
       <c r="AM116" s="4">
-        <f>A116</f>
+        <f t="shared" si="7"/>
         <v>3.85</v>
       </c>
     </row>
     <row r="117" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A117" s="18">
+      <c r="A117" s="17">
         <v>3.875</v>
       </c>
-      <c r="B117" s="21">
+      <c r="B117" s="20">
         <v>0.54158419999999996</v>
       </c>
       <c r="C117" s="1">
@@ -15893,7 +15973,7 @@
         <v>-9.2509859999999999E-17</v>
       </c>
       <c r="S117" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.0000000700000002</v>
       </c>
       <c r="V117" s="1">
@@ -15961,19 +16041,19 @@
         <v>-9.1463610487343996E-17</v>
       </c>
       <c r="AL117" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>3.8750002108774702</v>
       </c>
       <c r="AM117" s="4">
-        <f>A117</f>
+        <f t="shared" si="7"/>
         <v>3.875</v>
       </c>
     </row>
     <row r="118" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A118" s="18">
+      <c r="A118" s="17">
         <v>3.9</v>
       </c>
-      <c r="B118" s="21">
+      <c r="B118" s="20">
         <v>0.54634797999999996</v>
       </c>
       <c r="C118" s="1">
@@ -16025,7 +16105,7 @@
         <v>-9.343799E-17</v>
       </c>
       <c r="S118" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.99999997000000018</v>
       </c>
       <c r="V118" s="1">
@@ -16093,19 +16173,19 @@
         <v>-9.2381243708296E-17</v>
       </c>
       <c r="AL118" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>3.89999988526798</v>
       </c>
       <c r="AM118" s="4">
-        <f>A118</f>
+        <f t="shared" si="7"/>
         <v>3.9</v>
       </c>
     </row>
     <row r="119" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A119" s="18">
+      <c r="A119" s="17">
         <v>3.9249999999999998</v>
       </c>
-      <c r="B119" s="21">
+      <c r="B119" s="20">
         <v>0.55111186999999995</v>
       </c>
       <c r="C119" s="1">
@@ -16157,7 +16237,7 @@
         <v>-9.4366110000000003E-17</v>
       </c>
       <c r="S119" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.0000000699999998</v>
       </c>
       <c r="V119" s="1">
@@ -16225,19 +16305,19 @@
         <v>-9.3298867042343999E-17</v>
       </c>
       <c r="AL119" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>3.9250003429333704</v>
       </c>
       <c r="AM119" s="4">
-        <f>A119</f>
+        <f t="shared" si="7"/>
         <v>3.9249999999999998</v>
       </c>
     </row>
     <row r="120" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A120" s="18">
+      <c r="A120" s="17">
         <v>3.95</v>
       </c>
-      <c r="B120" s="21">
+      <c r="B120" s="20">
         <v>0.55587587999999999</v>
       </c>
       <c r="C120" s="1">
@@ -16289,7 +16369,7 @@
         <v>-9.5294229999999994E-17</v>
       </c>
       <c r="S120" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.99999998000000012</v>
       </c>
       <c r="V120" s="1">
@@ -16357,19 +16437,19 @@
         <v>-9.4216490376391986E-17</v>
       </c>
       <c r="AL120" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>3.9500000275694602</v>
       </c>
       <c r="AM120" s="4">
-        <f>A120</f>
+        <f t="shared" si="7"/>
         <v>3.95</v>
       </c>
     </row>
     <row r="121" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A121" s="18">
+      <c r="A121" s="17">
         <v>3.9750000000000001</v>
       </c>
-      <c r="B121" s="21">
+      <c r="B121" s="20">
         <v>0.56063998000000004</v>
       </c>
       <c r="C121" s="1">
@@ -16421,7 +16501,7 @@
         <v>-4.07112E-17</v>
       </c>
       <c r="S121" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.99999998000000023</v>
       </c>
       <c r="V121" s="1">
@@ -16489,19 +16569,19 @@
         <v>-4.0250772612480001E-17</v>
       </c>
       <c r="AL121" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>3.9749998188953204</v>
       </c>
       <c r="AM121" s="4">
-        <f>A121</f>
+        <f t="shared" si="7"/>
         <v>3.9750000000000001</v>
       </c>
     </row>
     <row r="122" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A122" s="18">
+      <c r="A122" s="17">
         <v>4</v>
       </c>
-      <c r="B122" s="21">
+      <c r="B122" s="20">
         <v>0.56540418999999997</v>
       </c>
       <c r="C122" s="1">
@@ -16553,7 +16633,7 @@
         <v>-9.7150479999999998E-17</v>
       </c>
       <c r="S122" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.99999999000000006</v>
       </c>
       <c r="V122" s="1">
@@ -16621,19 +16701,19 @@
         <v>-9.6051746931391989E-17</v>
       </c>
       <c r="AL122" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>4.0000001698709395</v>
       </c>
       <c r="AM122" s="4">
-        <f>A122</f>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
     </row>
     <row r="123" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A123" s="18">
+      <c r="A123" s="17">
         <v>4.0250000000000004</v>
       </c>
-      <c r="B123" s="21">
+      <c r="B123" s="20">
         <v>0.57016849000000003</v>
       </c>
       <c r="C123" s="1">
@@ -16685,7 +16765,7 @@
         <v>-9.8078600000000001E-17</v>
       </c>
       <c r="S123" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.99999999000000006</v>
       </c>
       <c r="V123" s="1">
@@ -16753,19 +16833,19 @@
         <v>-9.6969370265440001E-17</v>
       </c>
       <c r="AL123" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>4.0249999611967997</v>
       </c>
       <c r="AM123" s="4">
-        <f>A123</f>
+        <f t="shared" si="7"/>
         <v>4.0250000000000004</v>
       </c>
     </row>
     <row r="124" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A124" s="18">
+      <c r="A124" s="17">
         <v>4.05</v>
       </c>
-      <c r="B124" s="21">
+      <c r="B124" s="20">
         <v>0.57493289999999997</v>
       </c>
       <c r="C124" s="1">
@@ -16817,7 +16897,7 @@
         <v>-9.9006720000000004E-17</v>
       </c>
       <c r="S124" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.99999999000000006</v>
       </c>
       <c r="V124" s="1">
@@ -16885,19 +16965,19 @@
         <v>-9.7886993599488E-17</v>
       </c>
       <c r="AL124" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>4.0499997525226599</v>
       </c>
       <c r="AM124" s="4">
-        <f>A124</f>
+        <f t="shared" si="7"/>
         <v>4.05</v>
       </c>
     </row>
     <row r="125" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A125" s="18">
+      <c r="A125" s="17">
         <v>4.0750000000000002</v>
       </c>
-      <c r="B125" s="21">
+      <c r="B125" s="20">
         <v>0.57969738999999998</v>
       </c>
       <c r="C125" s="1">
@@ -16949,7 +17029,7 @@
         <v>-9.9934839999999995E-17</v>
       </c>
       <c r="S125" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.99999999999999956</v>
       </c>
       <c r="V125" s="1">
@@ -17017,19 +17097,19 @@
         <v>-9.8804616933535986E-17</v>
       </c>
       <c r="AL125" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>4.0750001034982795</v>
       </c>
       <c r="AM125" s="4">
-        <f>A125</f>
+        <f t="shared" si="7"/>
         <v>4.0750000000000002</v>
       </c>
     </row>
     <row r="126" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A126" s="18">
+      <c r="A126" s="17">
         <v>4.0999999999999996</v>
       </c>
-      <c r="B126" s="21">
+      <c r="B126" s="20">
         <v>0.58446198000000005</v>
       </c>
       <c r="C126" s="1">
@@ -17081,7 +17161,7 @@
         <v>-1.00863E-16</v>
       </c>
       <c r="S126" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.99999999999999989</v>
       </c>
       <c r="V126" s="1">
@@ -17149,19 +17229,19 @@
         <v>-9.9722279815199995E-17</v>
       </c>
       <c r="AL126" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>4.0999998948241405</v>
       </c>
       <c r="AM126" s="4">
-        <f>A126</f>
+        <f t="shared" si="7"/>
         <v>4.0999999999999996</v>
       </c>
     </row>
     <row r="127" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A127" s="18">
+      <c r="A127" s="17">
         <v>4.125</v>
       </c>
-      <c r="B127" s="21">
+      <c r="B127" s="20">
         <v>0.58922666000000001</v>
       </c>
       <c r="C127" s="1">
@@ -17213,7 +17293,7 @@
         <v>-1.017911E-16</v>
       </c>
       <c r="S127" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.0000000039999997</v>
       </c>
       <c r="V127" s="1">
@@ -17281,19 +17361,19 @@
         <v>-1.0063988337544E-16</v>
       </c>
       <c r="AL127" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>4.1250002396524126</v>
       </c>
       <c r="AM127" s="4">
-        <f>A127</f>
+        <f t="shared" si="7"/>
         <v>4.125</v>
       </c>
     </row>
     <row r="128" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A128" s="18">
+      <c r="A128" s="17">
         <v>4.1500000000000004</v>
       </c>
-      <c r="B128" s="21">
+      <c r="B128" s="20">
         <v>0.59399142999999999</v>
       </c>
       <c r="C128" s="1">
@@ -17345,7 +17425,7 @@
         <v>-1.0270069999999999E-16</v>
       </c>
       <c r="S128" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.0000000000000002</v>
       </c>
       <c r="V128" s="1">
@@ -17413,19 +17493,19 @@
         <v>-1.0153919616327999E-16</v>
       </c>
       <c r="AL128" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>4.1500002864823005</v>
       </c>
       <c r="AM128" s="4">
-        <f>A128</f>
+        <f t="shared" si="7"/>
         <v>4.1500000000000004</v>
       </c>
     </row>
     <row r="129" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A129" s="18">
+      <c r="A129" s="17">
         <v>4.1749999999999998</v>
       </c>
-      <c r="B129" s="21">
+      <c r="B129" s="20">
         <v>0.59875785999999998</v>
       </c>
       <c r="C129" s="1">
@@ -17477,7 +17557,7 @@
         <v>-4.7615339999999999E-17</v>
       </c>
       <c r="S129" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.0000000000000002</v>
       </c>
       <c r="V129" s="1">
@@ -17545,19 +17625,19 @@
         <v>-4.7076829550735995E-17</v>
       </c>
       <c r="AL129" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>4.174999824884841</v>
       </c>
       <c r="AM129" s="4">
-        <f>A129</f>
+        <f t="shared" si="7"/>
         <v>4.1749999999999998</v>
       </c>
     </row>
     <row r="130" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A130" s="18">
+      <c r="A130" s="17">
         <v>4.2</v>
       </c>
-      <c r="B130" s="21">
+      <c r="B130" s="20">
         <v>0.60352728</v>
       </c>
       <c r="C130" s="1">
@@ -17609,7 +17689,7 @@
         <v>-4.8041169999999999E-17</v>
       </c>
       <c r="S130" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="V130" s="1">
@@ -17677,19 +17757,19 @@
         <v>-4.7497843583767996E-17</v>
       </c>
       <c r="AL130" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>4.1999999126915597</v>
       </c>
       <c r="AM130" s="4">
-        <f>A130</f>
+        <f t="shared" si="7"/>
         <v>4.2</v>
       </c>
     </row>
     <row r="131" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A131" s="18">
+      <c r="A131" s="17">
         <v>4.2249999999999996</v>
       </c>
-      <c r="B131" s="21">
+      <c r="B131" s="20">
         <v>0.60829960000000005</v>
       </c>
       <c r="C131" s="1">
@@ -17741,7 +17821,7 @@
         <v>-1.039781E-16</v>
       </c>
       <c r="S131" s="2">
-        <f t="shared" ref="S131:S194" si="4">SUM(C131:R131)</f>
+        <f t="shared" ref="S131:S194" si="8">SUM(C131:R131)</f>
         <v>0.99999999999999956</v>
       </c>
       <c r="V131" s="1">
@@ -17809,19 +17889,19 @@
         <v>-1.0280214928023999E-16</v>
       </c>
       <c r="AL131" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>4.2250000004982802</v>
       </c>
       <c r="AM131" s="4">
-        <f>A131</f>
+        <f t="shared" ref="AM131:AM162" si="9">A131</f>
         <v>4.2249999999999996</v>
       </c>
     </row>
     <row r="132" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A132" s="18">
+      <c r="A132" s="17">
         <v>4.25</v>
       </c>
-      <c r="B132" s="21">
+      <c r="B132" s="20">
         <v>0.61307476000000005</v>
       </c>
       <c r="C132" s="1">
@@ -17873,7 +17953,7 @@
         <v>-1.04404E-16</v>
       </c>
       <c r="S132" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1.0000000000000004</v>
       </c>
       <c r="V132" s="1">
@@ -17941,19 +18021,19 @@
         <v>-1.032232325216E-16</v>
       </c>
       <c r="AL132" s="4">
-        <f t="shared" ref="AL132:AL195" si="5">SUM(V132:AK132)</f>
+        <f t="shared" ref="AL132:AL195" si="10">SUM(V132:AK132)</f>
         <v>4.2500000883050006</v>
       </c>
       <c r="AM132" s="4">
-        <f>A132</f>
+        <f t="shared" si="9"/>
         <v>4.25</v>
       </c>
     </row>
     <row r="133" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A133" s="18">
+      <c r="A133" s="17">
         <v>4.2750000000000004</v>
       </c>
-      <c r="B133" s="21">
+      <c r="B133" s="20">
         <v>0.61785270000000003</v>
       </c>
       <c r="C133" s="1">
@@ -18005,7 +18085,7 @@
         <v>-1.0482980000000001E-16</v>
       </c>
       <c r="S133" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.99999999999999989</v>
       </c>
       <c r="V133" s="1">
@@ -18073,19 +18153,19 @@
         <v>-1.0364421689392E-16</v>
       </c>
       <c r="AL133" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>4.2750001761117202</v>
       </c>
       <c r="AM133" s="4">
-        <f>A133</f>
+        <f t="shared" si="9"/>
         <v>4.2750000000000004</v>
       </c>
     </row>
     <row r="134" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A134" s="18">
+      <c r="A134" s="17">
         <v>4.3</v>
       </c>
-      <c r="B134" s="21">
+      <c r="B134" s="20">
         <v>0.62263334999999997</v>
       </c>
       <c r="C134" s="1">
@@ -18137,7 +18217,7 @@
         <v>-1.052556E-16</v>
       </c>
       <c r="S134" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1.0000000000000004</v>
       </c>
       <c r="V134" s="1">
@@ -18205,19 +18285,19 @@
         <v>-1.0406520126623999E-16</v>
       </c>
       <c r="AL134" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>4.3000002639184407</v>
       </c>
       <c r="AM134" s="4">
-        <f>A134</f>
+        <f t="shared" si="9"/>
         <v>4.3</v>
       </c>
     </row>
     <row r="135" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A135" s="18">
+      <c r="A135" s="17">
         <v>4.3250000000000002</v>
       </c>
-      <c r="B135" s="21">
+      <c r="B135" s="20">
         <v>0.62741665000000002</v>
       </c>
       <c r="C135" s="1">
@@ -18269,7 +18349,7 @@
         <v>-1.6119259999999999E-16</v>
       </c>
       <c r="S135" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1.0000000000000002</v>
       </c>
       <c r="V135" s="1">
@@ -18337,19 +18417,19 @@
         <v>-1.5936957617103999E-16</v>
       </c>
       <c r="AL135" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>4.3249998023209804</v>
       </c>
       <c r="AM135" s="4">
-        <f>A135</f>
+        <f t="shared" si="9"/>
         <v>4.3250000000000002</v>
       </c>
     </row>
     <row r="136" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A136" s="18">
+      <c r="A136" s="17">
         <v>4.3499999999999996</v>
       </c>
-      <c r="B136" s="21">
+      <c r="B136" s="20">
         <v>0.63220253999999998</v>
       </c>
       <c r="C136" s="1">
@@ -18401,7 +18481,7 @@
         <v>-1.0610730000000001E-16</v>
       </c>
       <c r="S136" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1.0000000000000004</v>
       </c>
       <c r="V136" s="1">
@@ -18469,19 +18549,19 @@
         <v>-1.0490726887992E-16</v>
       </c>
       <c r="AL136" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>4.3499998901276999</v>
       </c>
       <c r="AM136" s="4">
-        <f>A136</f>
+        <f t="shared" si="9"/>
         <v>4.3499999999999996</v>
       </c>
     </row>
     <row r="137" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A137" s="18">
+      <c r="A137" s="17">
         <v>4.375</v>
       </c>
-      <c r="B137" s="21">
+      <c r="B137" s="20">
         <v>0.63699095999999999</v>
       </c>
       <c r="C137" s="1">
@@ -18533,7 +18613,7 @@
         <v>-1.065331E-16</v>
       </c>
       <c r="S137" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1.0000000000000004</v>
       </c>
       <c r="V137" s="1">
@@ -18601,19 +18681,19 @@
         <v>-1.0532825325223999E-16</v>
       </c>
       <c r="AL137" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>4.3749999779344195</v>
       </c>
       <c r="AM137" s="4">
-        <f>A137</f>
+        <f t="shared" si="9"/>
         <v>4.375</v>
       </c>
     </row>
     <row r="138" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A138" s="18">
+      <c r="A138" s="17">
         <v>4.4000000000000004</v>
       </c>
-      <c r="B138" s="21">
+      <c r="B138" s="20">
         <v>0.64178184999999999</v>
       </c>
       <c r="C138" s="1">
@@ -18665,7 +18745,7 @@
         <v>-1.06959E-16</v>
       </c>
       <c r="S138" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1.0000000000000004</v>
       </c>
       <c r="V138" s="1">
@@ -18733,19 +18813,19 @@
         <v>-1.0574933649359999E-16</v>
       </c>
       <c r="AL138" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>4.40000006574114</v>
       </c>
       <c r="AM138" s="4">
-        <f>A138</f>
+        <f t="shared" si="9"/>
         <v>4.4000000000000004</v>
       </c>
     </row>
     <row r="139" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A139" s="18">
+      <c r="A139" s="17">
         <v>4.4249999999999998</v>
       </c>
-      <c r="B139" s="21">
+      <c r="B139" s="20">
         <v>0.64657516000000004</v>
       </c>
       <c r="C139" s="1">
@@ -18797,7 +18877,7 @@
         <v>-5.1873639999999997E-17</v>
       </c>
       <c r="S139" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1.0000000000000004</v>
       </c>
       <c r="V139" s="1">
@@ -18865,19 +18945,19 @@
         <v>-5.1286969881055997E-17</v>
       </c>
       <c r="AL139" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>4.4250001535478596</v>
       </c>
       <c r="AM139" s="4">
-        <f>A139</f>
+        <f t="shared" si="9"/>
         <v>4.4249999999999998</v>
       </c>
     </row>
     <row r="140" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A140" s="18">
+      <c r="A140" s="17">
         <v>4.45</v>
       </c>
-      <c r="B140" s="21">
+      <c r="B140" s="20">
         <v>0.65137084000000001</v>
       </c>
       <c r="C140" s="1">
@@ -18929,7 +19009,7 @@
         <v>-1.078106E-16</v>
       </c>
       <c r="S140" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1.0000000000000004</v>
       </c>
       <c r="V140" s="1">
@@ -18997,19 +19077,19 @@
         <v>-1.0659130523824E-16</v>
       </c>
       <c r="AL140" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>4.4500002413545801</v>
       </c>
       <c r="AM140" s="4">
-        <f>A140</f>
+        <f t="shared" si="9"/>
         <v>4.45</v>
       </c>
     </row>
     <row r="141" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A141" s="18">
+      <c r="A141" s="17">
         <v>4.4749999999999996</v>
       </c>
-      <c r="B141" s="21">
+      <c r="B141" s="20">
         <v>0.65616883999999998</v>
       </c>
       <c r="C141" s="1">
@@ -19061,7 +19141,7 @@
         <v>-1.082365E-16</v>
       </c>
       <c r="S141" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1.0000000000000004</v>
       </c>
       <c r="V141" s="1">
@@ -19129,19 +19209,19 @@
         <v>-1.0701238847959999E-16</v>
       </c>
       <c r="AL141" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>4.4749997797571197</v>
       </c>
       <c r="AM141" s="4">
-        <f>A141</f>
+        <f t="shared" si="9"/>
         <v>4.4749999999999996</v>
       </c>
     </row>
     <row r="142" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A142" s="18">
+      <c r="A142" s="17">
         <v>4.5</v>
       </c>
-      <c r="B142" s="21">
+      <c r="B142" s="20">
         <v>0.66096909999999998</v>
       </c>
       <c r="C142" s="1">
@@ -19193,7 +19273,7 @@
         <v>-1.086623E-16</v>
       </c>
       <c r="S142" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1.0000000000000004</v>
       </c>
       <c r="V142" s="1">
@@ -19261,19 +19341,19 @@
         <v>-1.0743337285192001E-16</v>
       </c>
       <c r="AL142" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>4.4999998675638402</v>
       </c>
       <c r="AM142" s="4">
-        <f>A142</f>
+        <f t="shared" si="9"/>
         <v>4.5</v>
       </c>
     </row>
     <row r="143" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A143" s="18">
+      <c r="A143" s="17">
         <v>4.5250000000000004</v>
       </c>
-      <c r="B143" s="21">
+      <c r="B143" s="20">
         <v>0.66577156999999998</v>
       </c>
       <c r="C143" s="1">
@@ -19325,7 +19405,7 @@
         <v>-5.3576959999999999E-17</v>
       </c>
       <c r="S143" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1.0000000000000004</v>
       </c>
       <c r="V143" s="1">
@@ -19393,19 +19473,19 @@
         <v>-5.2971026013183994E-17</v>
       </c>
       <c r="AL143" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>4.5249999553705598</v>
       </c>
       <c r="AM143" s="4">
-        <f>A143</f>
+        <f t="shared" si="9"/>
         <v>4.5250000000000004</v>
       </c>
     </row>
     <row r="144" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A144" s="18">
+      <c r="A144" s="17">
         <v>4.55</v>
       </c>
-      <c r="B144" s="21">
+      <c r="B144" s="20">
         <v>0.67057621000000001</v>
       </c>
       <c r="C144" s="1">
@@ -19457,7 +19537,7 @@
         <v>-1.095139E-16</v>
       </c>
       <c r="S144" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1.0000000000000007</v>
       </c>
       <c r="V144" s="1">
@@ -19525,19 +19605,19 @@
         <v>-1.0827534159656E-16</v>
       </c>
       <c r="AL144" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>4.5500000431772802</v>
       </c>
       <c r="AM144" s="4">
-        <f>A144</f>
+        <f t="shared" si="9"/>
         <v>4.55</v>
       </c>
     </row>
     <row r="145" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A145" s="18">
+      <c r="A145" s="17">
         <v>4.5750000000000002</v>
       </c>
-      <c r="B145" s="21">
+      <c r="B145" s="20">
         <v>0.67538297000000003</v>
       </c>
       <c r="C145" s="1">
@@ -19589,7 +19669,7 @@
         <v>-1.6545089999999999E-16</v>
       </c>
       <c r="S145" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1.0000000000000004</v>
       </c>
       <c r="V145" s="1">
@@ -19657,19 +19737,19 @@
         <v>-1.6357971650135999E-16</v>
       </c>
       <c r="AL145" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>4.5750001309839998</v>
       </c>
       <c r="AM145" s="4">
-        <f>A145</f>
+        <f t="shared" si="9"/>
         <v>4.5750000000000002</v>
       </c>
     </row>
     <row r="146" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A146" s="18">
+      <c r="A146" s="17">
         <v>4.5999999999999996</v>
       </c>
-      <c r="B146" s="21">
+      <c r="B146" s="20">
         <v>0.68019180999999995</v>
       </c>
       <c r="C146" s="1">
@@ -19721,7 +19801,7 @@
         <v>-1.658768E-16</v>
       </c>
       <c r="S146" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1.0000000000000004</v>
       </c>
       <c r="V146" s="1">
@@ -19789,19 +19869,19 @@
         <v>-1.6400079974272E-16</v>
       </c>
       <c r="AL146" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>4.6000002187907212</v>
       </c>
       <c r="AM146" s="4">
-        <f>A146</f>
+        <f t="shared" si="9"/>
         <v>4.5999999999999996</v>
       </c>
     </row>
     <row r="147" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A147" s="18">
+      <c r="A147" s="17">
         <v>4.625</v>
       </c>
-      <c r="B147" s="21">
+      <c r="B147" s="20">
         <v>0.68500267999999997</v>
       </c>
       <c r="C147" s="1">
@@ -19853,7 +19933,7 @@
         <v>-1.107914E-16</v>
       </c>
       <c r="S147" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1.0000000000000007</v>
       </c>
       <c r="V147" s="1">
@@ -19921,19 +20001,19 @@
         <v>-1.0953839358256E-16</v>
       </c>
       <c r="AL147" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>4.62499975719326</v>
       </c>
       <c r="AM147" s="4">
-        <f>A147</f>
+        <f t="shared" si="9"/>
         <v>4.625</v>
       </c>
     </row>
     <row r="148" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A148" s="18">
+      <c r="A148" s="17">
         <v>4.6500000000000004</v>
       </c>
-      <c r="B148" s="21">
+      <c r="B148" s="20">
         <v>0.68981552999999995</v>
       </c>
       <c r="C148" s="1">
@@ -19985,7 +20065,7 @@
         <v>-1.112173E-16</v>
       </c>
       <c r="S148" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1.0000000000000002</v>
       </c>
       <c r="V148" s="1">
@@ -20053,19 +20133,19 @@
         <v>-1.0995947682392E-16</v>
       </c>
       <c r="AL148" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>4.6499998449999795</v>
       </c>
       <c r="AM148" s="4">
-        <f>A148</f>
+        <f t="shared" si="9"/>
         <v>4.6500000000000004</v>
       </c>
     </row>
     <row r="149" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A149" s="18">
+      <c r="A149" s="17">
         <v>4.6749999999999998</v>
       </c>
-      <c r="B149" s="21">
+      <c r="B149" s="20">
         <v>0.69463034000000001</v>
       </c>
       <c r="C149" s="1">
@@ -20117,7 +20197,7 @@
         <v>-1.1164310000000001E-16</v>
       </c>
       <c r="S149" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1.0000000000000004</v>
       </c>
       <c r="V149" s="1">
@@ -20185,19 +20265,19 @@
         <v>-1.1038046119624E-16</v>
       </c>
       <c r="AL149" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>4.6749999328066991</v>
       </c>
       <c r="AM149" s="4">
-        <f>A149</f>
+        <f t="shared" si="9"/>
         <v>4.6749999999999998</v>
       </c>
     </row>
     <row r="150" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A150" s="18">
+      <c r="A150" s="17">
         <v>4.7</v>
       </c>
-      <c r="B150" s="21">
+      <c r="B150" s="20">
         <v>0.69944706000000001</v>
       </c>
       <c r="C150" s="1">
@@ -20249,7 +20329,7 @@
         <v>-1.1206889999999999E-16</v>
       </c>
       <c r="S150" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1.0000000000000004</v>
       </c>
       <c r="V150" s="1">
@@ -20317,19 +20397,19 @@
         <v>-1.1080144556855999E-16</v>
       </c>
       <c r="AL150" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>4.7000000206134205</v>
       </c>
       <c r="AM150" s="4">
-        <f>A150</f>
+        <f t="shared" si="9"/>
         <v>4.7</v>
       </c>
     </row>
     <row r="151" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A151" s="18">
+      <c r="A151" s="17">
         <v>4.7249999999999996</v>
       </c>
-      <c r="B151" s="21">
+      <c r="B151" s="20">
         <v>0.70426564000000003</v>
       </c>
       <c r="C151" s="1">
@@ -20381,7 +20461,7 @@
         <v>-1.124948E-16</v>
       </c>
       <c r="S151" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1.0000000000000004</v>
       </c>
       <c r="V151" s="1">
@@ -20449,19 +20529,19 @@
         <v>-1.1122252880992E-16</v>
       </c>
       <c r="AL151" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>4.7250001084201401</v>
       </c>
       <c r="AM151" s="4">
-        <f>A151</f>
+        <f t="shared" si="9"/>
         <v>4.7249999999999996</v>
       </c>
     </row>
     <row r="152" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A152" s="18">
+      <c r="A152" s="17">
         <v>4.75</v>
       </c>
-      <c r="B152" s="21">
+      <c r="B152" s="20">
         <v>0.70908605999999996</v>
       </c>
       <c r="C152" s="1">
@@ -20513,7 +20593,7 @@
         <v>-1.684317E-16</v>
       </c>
       <c r="S152" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1.0000000000000007</v>
       </c>
       <c r="V152" s="1">
@@ -20581,19 +20661,19 @@
         <v>-1.6652680484568E-16</v>
       </c>
       <c r="AL152" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>4.7500001962268605</v>
       </c>
       <c r="AM152" s="4">
-        <f>A152</f>
+        <f t="shared" si="9"/>
         <v>4.75</v>
       </c>
     </row>
     <row r="153" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A153" s="18">
+      <c r="A153" s="17">
         <v>4.7750000000000004</v>
       </c>
-      <c r="B153" s="21">
+      <c r="B153" s="20">
         <v>0.71390825999999996</v>
       </c>
       <c r="C153" s="1">
@@ -20645,7 +20725,7 @@
         <v>-1.6885760000000001E-16</v>
       </c>
       <c r="S153" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1.0000000000000007</v>
       </c>
       <c r="V153" s="1">
@@ -20713,19 +20793,19 @@
         <v>-1.6694788808704001E-16</v>
       </c>
       <c r="AL153" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>4.7750002840335801</v>
       </c>
       <c r="AM153" s="4">
-        <f>A153</f>
+        <f t="shared" si="9"/>
         <v>4.7750000000000004</v>
       </c>
     </row>
     <row r="154" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A154" s="18">
+      <c r="A154" s="17">
         <v>4.8</v>
       </c>
-      <c r="B154" s="21">
+      <c r="B154" s="20">
         <v>0.71873222999999997</v>
       </c>
       <c r="C154" s="1">
@@ -20777,7 +20857,7 @@
         <v>-1.137722E-16</v>
       </c>
       <c r="S154" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1.0000000000000007</v>
       </c>
       <c r="V154" s="1">
@@ -20845,19 +20925,19 @@
         <v>-1.1248548192687998E-16</v>
       </c>
       <c r="AL154" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>4.7999998224361207</v>
       </c>
       <c r="AM154" s="4">
-        <f>A154</f>
+        <f t="shared" si="9"/>
         <v>4.8</v>
       </c>
     </row>
     <row r="155" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A155" s="18">
+      <c r="A155" s="17">
         <v>4.8250000000000002</v>
       </c>
-      <c r="B155" s="21">
+      <c r="B155" s="20">
         <v>0.72355791999999997</v>
       </c>
       <c r="C155" s="1">
@@ -20909,7 +20989,7 @@
         <v>-1.1419810000000001E-16</v>
       </c>
       <c r="S155" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1.0000000000000007</v>
       </c>
       <c r="V155" s="1">
@@ -20977,19 +21057,19 @@
         <v>-1.1290656516824002E-16</v>
       </c>
       <c r="AL155" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>4.8249999102428403</v>
       </c>
       <c r="AM155" s="4">
-        <f>A155</f>
+        <f t="shared" si="9"/>
         <v>4.8250000000000002</v>
       </c>
     </row>
     <row r="156" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A156" s="18">
+      <c r="A156" s="17">
         <v>4.8499999999999996</v>
       </c>
-      <c r="B156" s="21">
+      <c r="B156" s="20">
         <v>0.72838530000000001</v>
       </c>
       <c r="C156" s="1">
@@ -21041,7 +21121,7 @@
         <v>-1.1462389999999999E-16</v>
       </c>
       <c r="S156" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="V156" s="1">
@@ -21109,19 +21189,19 @@
         <v>-1.1332754954056E-16</v>
       </c>
       <c r="AL156" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>4.8499999980495598</v>
       </c>
       <c r="AM156" s="4">
-        <f>A156</f>
+        <f t="shared" si="9"/>
         <v>4.8499999999999996</v>
       </c>
     </row>
     <row r="157" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A157" s="18">
+      <c r="A157" s="17">
         <v>4.875</v>
       </c>
-      <c r="B157" s="21">
+      <c r="B157" s="20">
         <v>0.73321433000000003</v>
       </c>
       <c r="C157" s="1">
@@ -21173,7 +21253,7 @@
         <v>-1.150497E-16</v>
       </c>
       <c r="S157" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1.0000000000000007</v>
       </c>
       <c r="V157" s="1">
@@ -21241,19 +21321,19 @@
         <v>-1.1374853391288E-16</v>
       </c>
       <c r="AL157" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>4.8750000858562803</v>
       </c>
       <c r="AM157" s="4">
-        <f>A157</f>
+        <f t="shared" si="9"/>
         <v>4.875</v>
       </c>
     </row>
     <row r="158" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A158" s="18">
+      <c r="A158" s="17">
         <v>4.9000000000000004</v>
       </c>
-      <c r="B158" s="21">
+      <c r="B158" s="20">
         <v>0.73804497999999996</v>
       </c>
       <c r="C158" s="1">
@@ -21305,7 +21385,7 @@
         <v>-1.1547560000000001E-16</v>
       </c>
       <c r="S158" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1.0000000000000009</v>
       </c>
       <c r="V158" s="1">
@@ -21373,19 +21453,19 @@
         <v>-1.1416961715424001E-16</v>
       </c>
       <c r="AL158" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>4.9000001736630008</v>
       </c>
       <c r="AM158" s="4">
-        <f>A158</f>
+        <f t="shared" si="9"/>
         <v>4.9000000000000004</v>
       </c>
     </row>
     <row r="159" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A159" s="18">
+      <c r="A159" s="17">
         <v>4.9249999999999998</v>
       </c>
-      <c r="B159" s="21">
+      <c r="B159" s="20">
         <v>0.74287723000000006</v>
       </c>
       <c r="C159" s="1">
@@ -21437,7 +21517,7 @@
         <v>-1.1590139999999999E-16</v>
       </c>
       <c r="S159" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.99999999999999978</v>
       </c>
       <c r="V159" s="1">
@@ -21505,19 +21585,19 @@
         <v>-1.1459060152655998E-16</v>
       </c>
       <c r="AL159" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>4.9250002614697195</v>
       </c>
       <c r="AM159" s="4">
-        <f>A159</f>
+        <f t="shared" si="9"/>
         <v>4.9249999999999998</v>
       </c>
     </row>
     <row r="160" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A160" s="18">
+      <c r="A160" s="17">
         <v>4.95</v>
       </c>
-      <c r="B160" s="21">
+      <c r="B160" s="20">
         <v>0.74771103999999999</v>
       </c>
       <c r="C160" s="1">
@@ -21569,7 +21649,7 @@
         <v>-1.163272E-16</v>
       </c>
       <c r="S160" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1.0000000000000009</v>
       </c>
       <c r="V160" s="1">
@@ -21637,19 +21717,19 @@
         <v>-1.1501158589887999E-16</v>
       </c>
       <c r="AL160" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>4.9499997998722618</v>
       </c>
       <c r="AM160" s="4">
-        <f>A160</f>
+        <f t="shared" si="9"/>
         <v>4.95</v>
       </c>
     </row>
     <row r="161" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A161" s="18">
+      <c r="A161" s="17">
         <v>4.9749999999999996</v>
       </c>
-      <c r="B161" s="21">
+      <c r="B161" s="20">
         <v>0.75254637000000002</v>
       </c>
       <c r="C161" s="1">
@@ -21701,7 +21781,7 @@
         <v>-1.1675310000000001E-16</v>
       </c>
       <c r="S161" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1.0000000000000007</v>
       </c>
       <c r="V161" s="1">
@@ -21769,19 +21849,19 @@
         <v>-1.1543266914024E-16</v>
       </c>
       <c r="AL161" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>4.9749998876789814</v>
       </c>
       <c r="AM161" s="4">
-        <f>A161</f>
+        <f t="shared" si="9"/>
         <v>4.9749999999999996</v>
       </c>
     </row>
     <row r="162" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A162" s="18">
+      <c r="A162" s="17">
         <v>5</v>
       </c>
-      <c r="B162" s="21">
+      <c r="B162" s="20">
         <v>0.75738320999999997</v>
       </c>
       <c r="C162" s="1">
@@ -21833,7 +21913,7 @@
         <v>-1.1717889999999999E-16</v>
       </c>
       <c r="S162" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1.0000000000000016</v>
       </c>
       <c r="V162" s="1">
@@ -21901,19 +21981,19 @@
         <v>-1.1585365351255997E-16</v>
       </c>
       <c r="AL162" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>4.9999999754857019</v>
       </c>
       <c r="AM162" s="4">
-        <f>A162</f>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
     </row>
     <row r="163" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A163" s="18">
+      <c r="A163" s="17">
         <v>5.0250000000000004</v>
       </c>
-      <c r="B163" s="21">
+      <c r="B163" s="20">
         <v>0.76222151999999999</v>
       </c>
       <c r="C163" s="1">
@@ -21965,7 +22045,7 @@
         <v>-1.1760469999999999E-16</v>
       </c>
       <c r="S163" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1.0000000000000007</v>
       </c>
       <c r="V163" s="1">
@@ -22033,19 +22113,19 @@
         <v>-1.1627463788488E-16</v>
       </c>
       <c r="AL163" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>5.0250000632924214</v>
       </c>
       <c r="AM163" s="4">
-        <f>A163</f>
+        <f t="shared" ref="AM163:AM194" si="11">A163</f>
         <v>5.0250000000000004</v>
       </c>
     </row>
     <row r="164" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A164" s="18">
+      <c r="A164" s="17">
         <v>5.05</v>
       </c>
-      <c r="B164" s="21">
+      <c r="B164" s="20">
         <v>0.76706127000000002</v>
       </c>
       <c r="C164" s="1">
@@ -22097,7 +22177,7 @@
         <v>-1.180305E-16</v>
       </c>
       <c r="S164" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1.0000000000000007</v>
       </c>
       <c r="V164" s="1">
@@ -22165,19 +22245,19 @@
         <v>-1.166956222572E-16</v>
       </c>
       <c r="AL164" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>5.050000151099141</v>
       </c>
       <c r="AM164" s="4">
-        <f>A164</f>
+        <f t="shared" si="11"/>
         <v>5.05</v>
       </c>
     </row>
     <row r="165" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A165" s="18">
+      <c r="A165" s="17">
         <v>5.0750000000000002</v>
       </c>
-      <c r="B165" s="21">
+      <c r="B165" s="20">
         <v>0.77190243999999997</v>
       </c>
       <c r="C165" s="1">
@@ -22229,7 +22309,7 @@
         <v>-6.2945230000000001E-17</v>
       </c>
       <c r="S165" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.99999999999999967</v>
       </c>
       <c r="V165" s="1">
@@ -22297,19 +22377,19 @@
         <v>-6.2233344626791993E-17</v>
       </c>
       <c r="AL165" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>5.0750002389058597</v>
       </c>
       <c r="AM165" s="4">
-        <f>A165</f>
+        <f t="shared" si="11"/>
         <v>5.0750000000000002</v>
       </c>
     </row>
     <row r="166" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A166" s="18">
+      <c r="A166" s="17">
         <v>5.0999999999999996</v>
       </c>
-      <c r="B166" s="21">
+      <c r="B166" s="20">
         <v>0.77674500000000002</v>
       </c>
       <c r="C166" s="1">
@@ -22361,7 +22441,7 @@
         <v>-1.1888219999999999E-16</v>
       </c>
       <c r="S166" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.99999999999999967</v>
       </c>
       <c r="V166" s="1">
@@ -22429,19 +22509,19 @@
         <v>-1.1753768987087999E-16</v>
       </c>
       <c r="AL166" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>5.0999997773084003</v>
       </c>
       <c r="AM166" s="4">
-        <f>A166</f>
+        <f t="shared" si="11"/>
         <v>5.0999999999999996</v>
       </c>
     </row>
     <row r="167" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A167" s="18">
+      <c r="A167" s="17">
         <v>5.125</v>
       </c>
-      <c r="B167" s="21">
+      <c r="B167" s="20">
         <v>0.78158892000000002</v>
       </c>
       <c r="C167" s="1">
@@ -22493,7 +22573,7 @@
         <v>5.105335E-17</v>
       </c>
       <c r="S167" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.99999999999999944</v>
       </c>
       <c r="V167" s="1">
@@ -22561,19 +22641,19 @@
         <v>5.0475957032839996E-17</v>
       </c>
       <c r="AL167" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>5.1249998651151181</v>
       </c>
       <c r="AM167" s="4">
-        <f>A167</f>
+        <f t="shared" si="11"/>
         <v>5.125</v>
       </c>
     </row>
     <row r="168" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A168" s="18">
+      <c r="A168" s="17">
         <v>5.15</v>
       </c>
-      <c r="B168" s="21">
+      <c r="B168" s="20">
         <v>0.78643419000000003</v>
       </c>
       <c r="C168" s="1">
@@ -22625,7 +22705,7 @@
         <v>-2.6966379999999999E-18</v>
       </c>
       <c r="S168" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1.0000000000000004</v>
       </c>
       <c r="V168" s="1">
@@ -22693,19 +22773,19 @@
         <v>-2.6661401028751998E-18</v>
       </c>
       <c r="AL168" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>5.1499999529218394</v>
       </c>
       <c r="AM168" s="4">
-        <f>A168</f>
+        <f t="shared" si="11"/>
         <v>5.15</v>
       </c>
     </row>
     <row r="169" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A169" s="18">
+      <c r="A169" s="17">
         <v>5.1749999999999998</v>
       </c>
-      <c r="B169" s="21">
+      <c r="B169" s="20">
         <v>0.79128076999999997</v>
       </c>
       <c r="C169" s="1">
@@ -22757,7 +22837,7 @@
         <v>-9.3547380000000007E-19</v>
       </c>
       <c r="S169" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1.0000000000000004</v>
       </c>
       <c r="V169" s="1">
@@ -22825,19 +22905,19 @@
         <v>-9.248939655115201E-19</v>
       </c>
       <c r="AL169" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>5.175000040728559</v>
       </c>
       <c r="AM169" s="4">
-        <f>A169</f>
+        <f t="shared" si="11"/>
         <v>5.1749999999999998</v>
       </c>
     </row>
     <row r="170" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A170" s="18">
+      <c r="A170" s="17">
         <v>5.2</v>
       </c>
-      <c r="B170" s="21">
+      <c r="B170" s="20">
         <v>0.79612864000000005</v>
       </c>
       <c r="C170" s="1">
@@ -22889,7 +22969,7 @@
         <v>8.2569060000000001E-19</v>
       </c>
       <c r="S170" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.999999999999999</v>
       </c>
       <c r="V170" s="1">
@@ -22957,19 +23037,19 @@
         <v>8.1635236959023996E-19</v>
       </c>
       <c r="AL170" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>5.2000001285352777</v>
       </c>
       <c r="AM170" s="4">
-        <f>A170</f>
+        <f t="shared" si="11"/>
         <v>5.2</v>
       </c>
     </row>
     <row r="171" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A171" s="18">
+      <c r="A171" s="17">
         <v>5.2249999999999996</v>
       </c>
-      <c r="B171" s="21">
+      <c r="B171" s="20">
         <v>0.80097777000000003</v>
       </c>
       <c r="C171" s="1">
@@ -23021,7 +23101,7 @@
         <v>-5.2924300000000001E-17</v>
       </c>
       <c r="S171" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1.0000000000000004</v>
       </c>
       <c r="V171" s="1">
@@ -23089,19 +23169,19 @@
         <v>-5.2325747336719998E-17</v>
       </c>
       <c r="AL171" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>5.2250002163419991</v>
       </c>
       <c r="AM171" s="4">
-        <f>A171</f>
+        <f t="shared" si="11"/>
         <v>5.2249999999999996</v>
       </c>
     </row>
     <row r="172" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A172" s="18">
+      <c r="A172" s="17">
         <v>5.25</v>
       </c>
-      <c r="B172" s="21">
+      <c r="B172" s="20">
         <v>0.80582816000000002</v>
       </c>
       <c r="C172" s="1">
@@ -23153,7 +23233,7 @@
         <v>5.9859170000000002E-17</v>
       </c>
       <c r="S172" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.99999999999999978</v>
       </c>
       <c r="V172" s="1">
@@ -23221,19 +23301,19 @@
         <v>5.9182186730967996E-17</v>
       </c>
       <c r="AL172" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>5.2499997547445387</v>
       </c>
       <c r="AM172" s="4">
-        <f>A172</f>
+        <f t="shared" si="11"/>
         <v>5.25</v>
       </c>
     </row>
     <row r="173" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A173" s="18">
+      <c r="A173" s="17">
         <v>5.2750000000000004</v>
       </c>
-      <c r="B173" s="21">
+      <c r="B173" s="20">
         <v>0.81067975999999997</v>
       </c>
       <c r="C173" s="1">
@@ -23285,7 +23365,7 @@
         <v>6.1091839999999999E-18</v>
       </c>
       <c r="S173" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1.0000000000000007</v>
       </c>
       <c r="V173" s="1">
@@ -23353,19 +23433,19 @@
         <v>6.0400915726336E-18</v>
       </c>
       <c r="AL173" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>5.2749998425512592</v>
       </c>
       <c r="AM173" s="4">
-        <f>A173</f>
+        <f t="shared" si="11"/>
         <v>5.2750000000000004</v>
       </c>
     </row>
     <row r="174" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A174" s="18">
+      <c r="A174" s="17">
         <v>5.3</v>
       </c>
-      <c r="B174" s="21">
+      <c r="B174" s="20">
         <v>0.81553255999999996</v>
       </c>
       <c r="C174" s="1">
@@ -23417,7 +23497,7 @@
         <v>7.8703480000000001E-18</v>
       </c>
       <c r="S174" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1.0000000000000007</v>
       </c>
       <c r="V174" s="1">
@@ -23485,19 +23565,19 @@
         <v>7.7813375122592002E-18</v>
       </c>
       <c r="AL174" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>5.2999999303579797</v>
       </c>
       <c r="AM174" s="4">
-        <f>A174</f>
+        <f t="shared" si="11"/>
         <v>5.3</v>
       </c>
     </row>
     <row r="175" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A175" s="18">
+      <c r="A175" s="17">
         <v>5.3250000000000002</v>
       </c>
-      <c r="B175" s="21">
+      <c r="B175" s="20">
         <v>0.82038655000000005</v>
       </c>
       <c r="C175" s="1">
@@ -23549,7 +23629,7 @@
         <v>9.6315129999999998E-18</v>
       </c>
       <c r="S175" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1.0000000000000016</v>
       </c>
       <c r="V175" s="1">
@@ -23617,19 +23697,19 @@
         <v>9.5225844405752E-18</v>
       </c>
       <c r="AL175" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>5.3250000181647001</v>
       </c>
       <c r="AM175" s="4">
-        <f>A175</f>
+        <f t="shared" si="11"/>
         <v>5.3250000000000002</v>
       </c>
     </row>
     <row r="176" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A176" s="18">
+      <c r="A176" s="17">
         <v>5.35</v>
       </c>
-      <c r="B176" s="21">
+      <c r="B176" s="20">
         <v>0.82524169000000003</v>
       </c>
       <c r="C176" s="1">
@@ -23681,7 +23761,7 @@
         <v>1.139268E-17</v>
       </c>
       <c r="S176" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.99999999999999944</v>
       </c>
       <c r="V176" s="1">
@@ -23749,19 +23829,19 @@
         <v>1.1263833346271999E-17</v>
       </c>
       <c r="AL176" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>5.350000105971418</v>
       </c>
       <c r="AM176" s="4">
-        <f>A176</f>
+        <f t="shared" si="11"/>
         <v>5.35</v>
       </c>
     </row>
     <row r="177" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A177" s="18">
+      <c r="A177" s="17">
         <v>5.375</v>
       </c>
-      <c r="B177" s="21">
+      <c r="B177" s="20">
         <v>0.83009796999999996</v>
       </c>
       <c r="C177" s="1">
@@ -23813,7 +23893,7 @@
         <v>1.3153840000000001E-17</v>
       </c>
       <c r="S177" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1.0000000000000004</v>
       </c>
       <c r="V177" s="1">
@@ -23881,19 +23961,19 @@
         <v>1.3005075331136001E-17</v>
       </c>
       <c r="AL177" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>5.3750001937781393</v>
       </c>
       <c r="AM177" s="4">
-        <f>A177</f>
+        <f t="shared" si="11"/>
         <v>5.375</v>
       </c>
     </row>
     <row r="178" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A178" s="18">
+      <c r="A178" s="17">
         <v>5.4</v>
       </c>
-      <c r="B178" s="21">
+      <c r="B178" s="20">
         <v>0.83495536999999997</v>
       </c>
       <c r="C178" s="1">
@@ -23945,7 +24025,7 @@
         <v>1.4915009999999999E-17</v>
       </c>
       <c r="S178" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1.0000000000000013</v>
       </c>
       <c r="V178" s="1">
@@ -24013,19 +24093,19 @@
         <v>1.4746327202903999E-17</v>
       </c>
       <c r="AL178" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>5.4000002815848598</v>
       </c>
       <c r="AM178" s="4">
-        <f>A178</f>
+        <f t="shared" si="11"/>
         <v>5.4</v>
       </c>
     </row>
     <row r="179" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A179" s="18">
+      <c r="A179" s="17">
         <v>5.4249999999999998</v>
       </c>
-      <c r="B179" s="21">
+      <c r="B179" s="20">
         <v>0.83981386000000002</v>
       </c>
       <c r="C179" s="1">
@@ -24077,7 +24157,7 @@
         <v>1.667617E-17</v>
       </c>
       <c r="S179" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1.0000000000000013</v>
       </c>
       <c r="V179" s="1">
@@ -24145,19 +24225,19 @@
         <v>1.6487569187768E-17</v>
       </c>
       <c r="AL179" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>5.4249998199874003</v>
       </c>
       <c r="AM179" s="4">
-        <f>A179</f>
+        <f t="shared" si="11"/>
         <v>5.4249999999999998</v>
       </c>
     </row>
     <row r="180" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A180" s="18">
+      <c r="A180" s="17">
         <v>5.45</v>
       </c>
-      <c r="B180" s="21">
+      <c r="B180" s="20">
         <v>0.84467344</v>
       </c>
       <c r="C180" s="1">
@@ -24209,7 +24289,7 @@
         <v>1.843733E-17</v>
       </c>
       <c r="S180" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1.0000000000000004</v>
       </c>
       <c r="V180" s="1">
@@ -24277,19 +24357,19 @@
         <v>1.8228811172631999E-17</v>
       </c>
       <c r="AL180" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>5.4499999077941199</v>
       </c>
       <c r="AM180" s="4">
-        <f>A180</f>
+        <f t="shared" si="11"/>
         <v>5.45</v>
       </c>
     </row>
     <row r="181" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A181" s="18">
+      <c r="A181" s="17">
         <v>5.4749999999999996</v>
       </c>
-      <c r="B181" s="21">
+      <c r="B181" s="20">
         <v>0.84953407999999997</v>
       </c>
       <c r="C181" s="1">
@@ -24341,7 +24421,7 @@
         <v>2.0198499999999999E-17</v>
       </c>
       <c r="S181" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.99999999999999922</v>
       </c>
       <c r="V181" s="1">
@@ -24409,19 +24489,19 @@
         <v>1.99700630444E-17</v>
       </c>
       <c r="AL181" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>5.4749999956008386</v>
       </c>
       <c r="AM181" s="4">
-        <f>A181</f>
+        <f t="shared" si="11"/>
         <v>5.4749999999999996</v>
       </c>
     </row>
     <row r="182" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A182" s="18">
+      <c r="A182" s="17">
         <v>5.5</v>
       </c>
-      <c r="B182" s="21">
+      <c r="B182" s="20">
         <v>0.85439575999999995</v>
       </c>
       <c r="C182" s="1">
@@ -24473,7 +24553,7 @@
         <v>2.195966E-17</v>
       </c>
       <c r="S182" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1.0000000000000002</v>
       </c>
       <c r="V182" s="1">
@@ -24541,19 +24621,19 @@
         <v>2.1711305029263999E-17</v>
       </c>
       <c r="AL182" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>5.5000000834075591</v>
       </c>
       <c r="AM182" s="4">
-        <f>A182</f>
+        <f t="shared" si="11"/>
         <v>5.5</v>
       </c>
     </row>
     <row r="183" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A183" s="18">
+      <c r="A183" s="17">
         <v>5.5250000000000004</v>
       </c>
-      <c r="B183" s="21">
+      <c r="B183" s="20">
         <v>0.85925845999999995</v>
       </c>
       <c r="C183" s="1">
@@ -24605,7 +24685,7 @@
         <v>2.3720829999999999E-17</v>
       </c>
       <c r="S183" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1.0000000000000002</v>
       </c>
       <c r="V183" s="1">
@@ -24673,19 +24753,19 @@
         <v>2.3452556901031997E-17</v>
       </c>
       <c r="AL183" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>5.5250001712142796</v>
       </c>
       <c r="AM183" s="4">
-        <f>A183</f>
+        <f t="shared" si="11"/>
         <v>5.5250000000000004</v>
       </c>
     </row>
     <row r="184" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A184" s="18">
+      <c r="A184" s="17">
         <v>5.55</v>
       </c>
-      <c r="B184" s="21">
+      <c r="B184" s="20">
         <v>0.86412217999999996</v>
       </c>
       <c r="C184" s="1">
@@ -24737,7 +24817,7 @@
         <v>2.5481989999999999E-17</v>
       </c>
       <c r="S184" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1.0000000000000004</v>
       </c>
       <c r="V184" s="1">
@@ -24805,19 +24885,19 @@
         <v>2.5193798885895998E-17</v>
       </c>
       <c r="AL184" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>5.550000259021</v>
       </c>
       <c r="AM184" s="4">
-        <f>A184</f>
+        <f t="shared" si="11"/>
         <v>5.55</v>
       </c>
     </row>
     <row r="185" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A185" s="18">
+      <c r="A185" s="17">
         <v>5.5750000000000002</v>
       </c>
-      <c r="B185" s="21">
+      <c r="B185" s="20">
         <v>0.86898688000000002</v>
       </c>
       <c r="C185" s="1">
@@ -24869,7 +24949,7 @@
         <v>2.7243160000000001E-17</v>
       </c>
       <c r="S185" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1.0000000000000002</v>
       </c>
       <c r="V185" s="1">
@@ -24937,19 +25017,19 @@
         <v>2.6935050757663999E-17</v>
       </c>
       <c r="AL185" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>5.5749997974235388</v>
       </c>
       <c r="AM185" s="4">
-        <f>A185</f>
+        <f t="shared" si="11"/>
         <v>5.5750000000000002</v>
       </c>
     </row>
     <row r="186" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A186" s="18">
+      <c r="A186" s="17">
         <v>5.6</v>
       </c>
-      <c r="B186" s="21">
+      <c r="B186" s="20">
         <v>0.87385256</v>
       </c>
       <c r="C186" s="1">
@@ -25001,7 +25081,7 @@
         <v>2.9004320000000002E-17</v>
       </c>
       <c r="S186" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1.0000000000000004</v>
       </c>
       <c r="V186" s="1">
@@ -25069,19 +25149,19 @@
         <v>2.8676292742528001E-17</v>
       </c>
       <c r="AL186" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>5.5999998852302593</v>
       </c>
       <c r="AM186" s="4">
-        <f>A186</f>
+        <f t="shared" si="11"/>
         <v>5.6</v>
       </c>
     </row>
     <row r="187" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A187" s="18">
+      <c r="A187" s="17">
         <v>5.625</v>
       </c>
-      <c r="B187" s="21">
+      <c r="B187" s="20">
         <v>0.87871920000000003</v>
       </c>
       <c r="C187" s="1">
@@ -25133,7 +25213,7 @@
         <v>3.0765489999999997E-17</v>
       </c>
       <c r="S187" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1.0000000000000002</v>
       </c>
       <c r="V187" s="1">
@@ -25201,19 +25281,19 @@
         <v>3.0417544614295996E-17</v>
       </c>
       <c r="AL187" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>5.6249999730369789</v>
       </c>
       <c r="AM187" s="4">
-        <f>A187</f>
+        <f t="shared" si="11"/>
         <v>5.625</v>
       </c>
     </row>
     <row r="188" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A188" s="18">
+      <c r="A188" s="17">
         <v>5.65</v>
       </c>
-      <c r="B188" s="21">
+      <c r="B188" s="20">
         <v>0.88358678000000002</v>
       </c>
       <c r="C188" s="1">
@@ -25265,7 +25345,7 @@
         <v>3.2526650000000001E-17</v>
       </c>
       <c r="S188" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1.0000000000000004</v>
       </c>
       <c r="V188" s="1">
@@ -25333,19 +25413,19 @@
         <v>3.2158786599159997E-17</v>
       </c>
       <c r="AL188" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>5.6500000608436984</v>
       </c>
       <c r="AM188" s="4">
-        <f>A188</f>
+        <f t="shared" si="11"/>
         <v>5.65</v>
       </c>
     </row>
     <row r="189" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A189" s="18">
+      <c r="A189" s="17">
         <v>5.6749999999999998</v>
       </c>
-      <c r="B189" s="21">
+      <c r="B189" s="20">
         <v>0.88845529000000001</v>
       </c>
       <c r="C189" s="1">
@@ -25397,7 +25477,7 @@
         <v>3.4287809999999998E-17</v>
       </c>
       <c r="S189" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1.0000000000000004</v>
       </c>
       <c r="V189" s="1">
@@ -25465,19 +25545,19 @@
         <v>3.3900028584023999E-17</v>
       </c>
       <c r="AL189" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>5.6750001486504198</v>
       </c>
       <c r="AM189" s="4">
-        <f>A189</f>
+        <f t="shared" si="11"/>
         <v>5.6749999999999998</v>
       </c>
     </row>
     <row r="190" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A190" s="18">
+      <c r="A190" s="17">
         <v>5.7</v>
       </c>
-      <c r="B190" s="21">
+      <c r="B190" s="20">
         <v>0.89332471000000002</v>
       </c>
       <c r="C190" s="1">
@@ -25529,7 +25609,7 @@
         <v>3.604898E-17</v>
       </c>
       <c r="S190" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1.0000000000000004</v>
       </c>
       <c r="V190" s="1">
@@ -25597,19 +25677,19 @@
         <v>3.5641280455792E-17</v>
       </c>
       <c r="AL190" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>5.7000002364571394</v>
       </c>
       <c r="AM190" s="4">
-        <f>A190</f>
+        <f t="shared" si="11"/>
         <v>5.7</v>
       </c>
     </row>
     <row r="191" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A191" s="18">
+      <c r="A191" s="17">
         <v>5.7249999999999996</v>
       </c>
-      <c r="B191" s="21">
+      <c r="B191" s="20">
         <v>0.89819503000000001</v>
       </c>
       <c r="C191" s="1">
@@ -25661,7 +25741,7 @@
         <v>3.7810139999999998E-17</v>
       </c>
       <c r="S191" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="V191" s="1">
@@ -25729,19 +25809,19 @@
         <v>3.7382522440655996E-17</v>
       </c>
       <c r="AL191" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>5.724999774859679</v>
       </c>
       <c r="AM191" s="4">
-        <f>A191</f>
+        <f t="shared" si="11"/>
         <v>5.7249999999999996</v>
       </c>
     </row>
     <row r="192" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A192" s="18">
+      <c r="A192" s="17">
         <v>5.75</v>
       </c>
-      <c r="B192" s="21">
+      <c r="B192" s="20">
         <v>0.90306622999999997</v>
       </c>
       <c r="C192" s="1">
@@ -25793,7 +25873,7 @@
         <v>3.957131E-17</v>
       </c>
       <c r="S192" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1.0000000000000004</v>
       </c>
       <c r="V192" s="1">
@@ -25861,19 +25941,19 @@
         <v>3.9123774312423997E-17</v>
       </c>
       <c r="AL192" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>5.7499998626663995</v>
       </c>
       <c r="AM192" s="4">
-        <f>A192</f>
+        <f t="shared" si="11"/>
         <v>5.75</v>
       </c>
     </row>
     <row r="193" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A193" s="18">
+      <c r="A193" s="17">
         <v>5.7750000000000004</v>
       </c>
-      <c r="B193" s="21">
+      <c r="B193" s="20">
         <v>0.90793829000000004</v>
       </c>
       <c r="C193" s="1">
@@ -25925,7 +26005,7 @@
         <v>4.1332469999999997E-17</v>
       </c>
       <c r="S193" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1.0000000000000004</v>
       </c>
       <c r="V193" s="1">
@@ -25993,19 +26073,19 @@
         <v>4.0865016297287998E-17</v>
       </c>
       <c r="AL193" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>5.7749999504731191</v>
       </c>
       <c r="AM193" s="4">
-        <f>A193</f>
+        <f t="shared" si="11"/>
         <v>5.7750000000000004</v>
       </c>
     </row>
     <row r="194" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A194" s="18">
+      <c r="A194" s="17">
         <v>5.8</v>
       </c>
-      <c r="B194" s="21">
+      <c r="B194" s="20">
         <v>0.91281122000000003</v>
       </c>
       <c r="C194" s="1">
@@ -26057,7 +26137,7 @@
         <v>4.3093639999999999E-17</v>
       </c>
       <c r="S194" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1.0000000000000004</v>
       </c>
       <c r="V194" s="1">
@@ -26125,19 +26205,19 @@
         <v>4.2606268169055999E-17</v>
       </c>
       <c r="AL194" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>5.8000000382798396</v>
       </c>
       <c r="AM194" s="4">
-        <f>A194</f>
+        <f t="shared" si="11"/>
         <v>5.8</v>
       </c>
     </row>
     <row r="195" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A195" s="18">
+      <c r="A195" s="17">
         <v>5.8250000000000002</v>
       </c>
-      <c r="B195" s="21">
+      <c r="B195" s="20">
         <v>0.91768497999999998</v>
       </c>
       <c r="C195" s="1">
@@ -26189,7 +26269,7 @@
         <v>4.4854800000000003E-17</v>
       </c>
       <c r="S195" s="2">
-        <f t="shared" ref="S195:S202" si="6">SUM(C195:R195)</f>
+        <f t="shared" ref="S195:S202" si="12">SUM(C195:R195)</f>
         <v>1.0000000000000004</v>
       </c>
       <c r="V195" s="1">
@@ -26257,19 +26337,19 @@
         <v>4.4347510153920001E-17</v>
       </c>
       <c r="AL195" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>5.82500012608656</v>
       </c>
       <c r="AM195" s="4">
-        <f>A195</f>
+        <f t="shared" ref="AM195:AM202" si="13">A195</f>
         <v>5.8250000000000002</v>
       </c>
     </row>
     <row r="196" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A196" s="18">
+      <c r="A196" s="17">
         <v>5.85</v>
       </c>
-      <c r="B196" s="21">
+      <c r="B196" s="20">
         <v>0.92255957</v>
       </c>
       <c r="C196" s="1">
@@ -26321,7 +26401,7 @@
         <v>4.6615969999999998E-17</v>
       </c>
       <c r="S196" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>1.0000000000000004</v>
       </c>
       <c r="V196" s="1">
@@ -26389,19 +26469,19 @@
         <v>4.6088762025687996E-17</v>
       </c>
       <c r="AL196" s="4">
-        <f t="shared" ref="AL196:AL202" si="7">SUM(V196:AK196)</f>
+        <f t="shared" ref="AL196:AL202" si="14">SUM(V196:AK196)</f>
         <v>5.8500002138932796</v>
       </c>
       <c r="AM196" s="4">
-        <f>A196</f>
+        <f t="shared" si="13"/>
         <v>5.85</v>
       </c>
     </row>
     <row r="197" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A197" s="18">
+      <c r="A197" s="17">
         <v>5.875</v>
       </c>
-      <c r="B197" s="21">
+      <c r="B197" s="20">
         <v>0.92743498000000002</v>
       </c>
       <c r="C197" s="1">
@@ -26453,7 +26533,7 @@
         <v>4.8377130000000002E-17</v>
       </c>
       <c r="S197" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>1.0000000000000004</v>
       </c>
       <c r="V197" s="1">
@@ -26521,19 +26601,19 @@
         <v>4.7830004010551998E-17</v>
       </c>
       <c r="AL197" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>5.8749997522958193</v>
       </c>
       <c r="AM197" s="4">
-        <f>A197</f>
+        <f t="shared" si="13"/>
         <v>5.875</v>
       </c>
     </row>
     <row r="198" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A198" s="18">
+      <c r="A198" s="17">
         <v>5.9</v>
       </c>
-      <c r="B198" s="21">
+      <c r="B198" s="20">
         <v>0.93231118000000002</v>
       </c>
       <c r="C198" s="1">
@@ -26585,7 +26665,7 @@
         <v>5.0138289999999999E-17</v>
       </c>
       <c r="S198" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>1.0000000000000007</v>
       </c>
       <c r="V198" s="1">
@@ -26653,19 +26733,19 @@
         <v>4.9571245995415999E-17</v>
       </c>
       <c r="AL198" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>5.8999998401025406</v>
       </c>
       <c r="AM198" s="4">
-        <f>A198</f>
+        <f t="shared" si="13"/>
         <v>5.9</v>
       </c>
     </row>
     <row r="199" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A199" s="18">
+      <c r="A199" s="17">
         <v>5.9249999999999998</v>
       </c>
-      <c r="B199" s="21">
+      <c r="B199" s="20">
         <v>0.93718818000000004</v>
       </c>
       <c r="C199" s="1">
@@ -26717,7 +26797,7 @@
         <v>5.1899460000000001E-17</v>
       </c>
       <c r="S199" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>1.0000000000000007</v>
       </c>
       <c r="V199" s="1">
@@ -26785,19 +26865,19 @@
         <v>5.1312497867184E-17</v>
       </c>
       <c r="AL199" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>5.9249999279092602</v>
       </c>
       <c r="AM199" s="4">
-        <f>A199</f>
+        <f t="shared" si="13"/>
         <v>5.9249999999999998</v>
       </c>
     </row>
     <row r="200" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A200" s="18">
+      <c r="A200" s="17">
         <v>5.95</v>
       </c>
-      <c r="B200" s="21">
+      <c r="B200" s="20">
         <v>0.94206595000000004</v>
       </c>
       <c r="C200" s="1">
@@ -26849,7 +26929,7 @@
         <v>5.3660619999999999E-17</v>
       </c>
       <c r="S200" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>1.0000000000000002</v>
       </c>
       <c r="V200" s="1">
@@ -26917,19 +26997,19 @@
         <v>5.3053739852047996E-17</v>
       </c>
       <c r="AL200" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>5.9500000157159798</v>
       </c>
       <c r="AM200" s="4">
-        <f>A200</f>
+        <f t="shared" si="13"/>
         <v>5.95</v>
       </c>
     </row>
     <row r="201" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A201" s="18">
+      <c r="A201" s="17">
         <v>5.9749999999999996</v>
       </c>
-      <c r="B201" s="21">
+      <c r="B201" s="20">
         <v>0.94694449000000003</v>
       </c>
       <c r="C201" s="1">
@@ -26981,7 +27061,7 @@
         <v>5.5421790000000001E-17</v>
       </c>
       <c r="S201" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>1.0000000000000007</v>
       </c>
       <c r="V201" s="1">
@@ -27049,19 +27129,19 @@
         <v>5.4794991723815997E-17</v>
       </c>
       <c r="AL201" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>5.9750001035226994</v>
       </c>
       <c r="AM201" s="4">
-        <f>A201</f>
+        <f t="shared" si="13"/>
         <v>5.9749999999999996</v>
       </c>
     </row>
     <row r="202" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A202" s="19">
+      <c r="A202" s="18">
         <v>6</v>
       </c>
-      <c r="B202" s="22">
+      <c r="B202" s="21">
         <v>0.95182378000000001</v>
       </c>
       <c r="C202" s="1">
@@ -27113,7 +27193,7 @@
         <v>5.7182949999999998E-17</v>
       </c>
       <c r="S202" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>1.0000000000000002</v>
       </c>
       <c r="V202" s="1">
@@ -27181,11 +27261,11 @@
         <v>5.6536233708679999E-17</v>
       </c>
       <c r="AL202" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>6.000000191329419</v>
       </c>
       <c r="AM202" s="4">
-        <f>A202</f>
+        <f t="shared" si="13"/>
         <v>6</v>
       </c>
     </row>
@@ -28760,4 +28840,19 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O4" sqref="O4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>